--- a/Reports/New Base_Report_Iteration_1.xlsx
+++ b/Reports/New Base_Report_Iteration_1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView tabRatio="693" windowHeight="7680" windowWidth="24240" xWindow="660" yWindow="4965"/>
+    <workbookView activeTab="12" tabRatio="693" windowHeight="7620" windowWidth="24240" xWindow="660" yWindow="5025"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" r:id="rId1" sheetId="1"/>
@@ -19,7 +19,8 @@
     <sheet name="ToolVersion" r:id="rId10" sheetId="22896" state="hidden"/>
     <sheet name="ProcedureVersion" r:id="rId11" sheetId="22903" state="hidden"/>
     <sheet name="Result Matrix" r:id="rId12" sheetId="22904" state="hidden"/>
-    <sheet name="Report" r:id="rId17" sheetId="22905"/>
+    <sheet name="Report" r:id="rId13" sheetId="22905"/>
+    <sheet name="Raw Result" r:id="rId18" sheetId="22906"/>
   </sheets>
   <definedNames>
     <definedName name="_context">defaultValues!$F$3:$F$4</definedName>
@@ -89,8 +90,60 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Thomas Yuen</author>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="C1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>required on Class-List validation</t>
+        </r>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>required on Class-List validation</t>
+        </r>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>required on Class-List validation</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="638">
   <si>
     <t>Regression thread</t>
   </si>
@@ -1879,6 +1932,30 @@
     <t>TAT</t>
   </si>
   <si>
+    <t>Attribute_Description(MCS)</t>
+  </si>
+  <si>
+    <t>DC_Data_Type</t>
+  </si>
+  <si>
+    <t>v0_label(0)</t>
+  </si>
+  <si>
+    <t>v0_Severity</t>
+  </si>
+  <si>
+    <t>v0_State</t>
+  </si>
+  <si>
+    <t>Station</t>
+  </si>
+  <si>
+    <t>Eqpt_Description(MCS)</t>
+  </si>
+  <si>
+    <t>Eqpt_Identifier</t>
+  </si>
+  <si>
     <t>22-06-2018</t>
   </si>
   <si>
@@ -1900,6 +1977,39 @@
     <t>Triggering State</t>
   </si>
   <si>
+    <t>v1_label(1)</t>
+  </si>
+  <si>
+    <t>v1_Severity</t>
+  </si>
+  <si>
+    <t>v1_State</t>
+  </si>
+  <si>
+    <t>v2_label(2)</t>
+  </si>
+  <si>
+    <t>v2_Severity</t>
+  </si>
+  <si>
+    <t>v2_State</t>
+  </si>
+  <si>
+    <t>Device_Address</t>
+  </si>
+  <si>
+    <t>Function_Code</t>
+  </si>
+  <si>
+    <t>Register_Address/File</t>
+  </si>
+  <si>
+    <t>Bit_offset</t>
+  </si>
+  <si>
+    <t>DC_Addr_Size</t>
+  </si>
+  <si>
     <t>13</t>
   </si>
   <si>
@@ -1933,6 +2043,9 @@
     <t>2.0</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
@@ -1973,9 +2086,6 @@
   </si>
   <si>
     <t>2P06</t>
-  </si>
-  <si>
-    <t>Station</t>
   </si>
   <si>
     <t>Searched</t>
@@ -2010,7 +2120,7 @@
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="165" formatCode="dd\-mmm\-yyyy"/>
   </numFmts>
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="44" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2277,8 +2387,22 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="58">
+  <fills count="63">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2619,6 +2743,34 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="41"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="gray0625">
+        <fgColor indexed="22"/>
+        <bgColor indexed="41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="gray0625">
+        <fgColor indexed="22"/>
+        <bgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
       </patternFill>
     </fill>
   </fills>
@@ -3360,7 +3512,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="261">
+  <cellXfs count="274">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" applyFont="1" borderId="0" fillId="24" fontId="25" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="10" fillId="28" fontId="27" numFmtId="0" xfId="0">
@@ -3883,6 +4035,24 @@
     <xf applyBorder="1" applyFont="1" borderId="10" fillId="48" fontId="0" numFmtId="0" xfId="47">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="11" fillId="58" fontId="42" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="11" fillId="59" fontId="42" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="11" fillId="60" fontId="42" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="11" fillId="25" fontId="42" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="50" fillId="52" fontId="40" numFmtId="0" xfId="43">
+      <alignment horizontal="center" textRotation="90" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="10" fillId="52" fontId="40" numFmtId="0" xfId="43">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf applyAlignment="1" applyBorder="1" borderId="46" fillId="50" fontId="20" numFmtId="0" xfId="46">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4063,18 +4233,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -5907,7 +6076,7 @@
   </sheetPr>
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -6170,11 +6339,11 @@
       <c r="A15" s="138"/>
       <c r="B15" s="141"/>
       <c r="C15" s="138"/>
-      <c r="D15" s="190"/>
-      <c r="E15" s="191"/>
+      <c r="D15" s="196"/>
+      <c r="E15" s="197"/>
       <c r="F15" s="149"/>
-      <c r="G15" s="190"/>
-      <c r="H15" s="191"/>
+      <c r="G15" s="196"/>
+      <c r="H15" s="197"/>
       <c r="I15" s="138"/>
       <c r="J15" s="139"/>
     </row>
@@ -6252,7 +6421,7 @@
         <v>Running date</v>
       </c>
       <c r="H19" s="178" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="I19" s="143"/>
       <c r="J19" s="139"/>
@@ -6379,8 +6548,8 @@
       </c>
       <c r="E26" s="159"/>
       <c r="F26" s="149"/>
-      <c r="G26" s="192"/>
-      <c r="H26" s="193"/>
+      <c r="G26" s="198"/>
+      <c r="H26" s="199"/>
       <c r="I26" s="138"/>
       <c r="J26" s="139"/>
     </row>
@@ -6394,8 +6563,8 @@
       </c>
       <c r="E27" s="155"/>
       <c r="F27" s="149"/>
-      <c r="G27" s="194"/>
-      <c r="H27" s="195"/>
+      <c r="G27" s="200"/>
+      <c r="H27" s="201"/>
       <c r="I27" s="143"/>
       <c r="J27" s="139"/>
     </row>
@@ -6408,8 +6577,8 @@
       </c>
       <c r="E28" s="155"/>
       <c r="F28" s="149"/>
-      <c r="G28" s="196"/>
-      <c r="H28" s="197"/>
+      <c r="G28" s="202"/>
+      <c r="H28" s="203"/>
       <c r="I28" s="143"/>
       <c r="J28" s="139"/>
     </row>
@@ -6455,8 +6624,8 @@
       </c>
       <c r="E31" s="155"/>
       <c r="F31" s="149"/>
-      <c r="G31" s="198"/>
-      <c r="H31" s="199"/>
+      <c r="G31" s="204"/>
+      <c r="H31" s="205"/>
       <c r="I31" s="143"/>
       <c r="J31" s="139"/>
     </row>
@@ -6470,8 +6639,8 @@
       </c>
       <c r="E32" s="156"/>
       <c r="F32" s="149"/>
-      <c r="G32" s="200"/>
-      <c r="H32" s="201"/>
+      <c r="G32" s="206"/>
+      <c r="H32" s="207"/>
       <c r="I32" s="143"/>
       <c r="J32" s="139"/>
     </row>
@@ -7463,14 +7632,14 @@
   </cols>
   <sheetData>
     <row ht="15" r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C1" s="245" t="s">
+      <c r="C1" s="251" t="s">
         <v>512</v>
       </c>
-      <c r="D1" s="245"/>
-      <c r="E1" s="245"/>
-      <c r="F1" s="245"/>
-      <c r="G1" s="245"/>
-      <c r="H1" s="245"/>
+      <c r="D1" s="251"/>
+      <c r="E1" s="251"/>
+      <c r="F1" s="251"/>
+      <c r="G1" s="251"/>
+      <c r="H1" s="251"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C2" s="123" t="s">
@@ -7493,7 +7662,7 @@
       </c>
     </row>
     <row customHeight="1" ht="14.25" r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="246" t="s">
+      <c r="A3" s="252" t="s">
         <v>513</v>
       </c>
       <c r="B3" s="129" t="s">
@@ -7519,7 +7688,7 @@
       </c>
     </row>
     <row customHeight="1" ht="14.25" r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="246"/>
+      <c r="A4" s="252"/>
       <c r="B4" s="132" t="s">
         <v>30</v>
       </c>
@@ -7543,27 +7712,27 @@
       </c>
     </row>
     <row customHeight="1" ht="14.25" r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="246"/>
+      <c r="A5" s="252"/>
       <c r="B5" s="129" t="s">
         <v>515</v>
       </c>
       <c r="C5" s="130" t="s">
         <v>514</v>
       </c>
-      <c r="D5" s="247" t="s">
+      <c r="D5" s="253" t="s">
         <v>516</v>
       </c>
-      <c r="E5" s="247"/>
+      <c r="E5" s="253"/>
       <c r="F5" s="130">
         <v>0</v>
       </c>
-      <c r="G5" s="247" t="s">
+      <c r="G5" s="253" t="s">
         <v>516</v>
       </c>
-      <c r="H5" s="247"/>
+      <c r="H5" s="253"/>
     </row>
     <row customHeight="1" ht="14.25" r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="246"/>
+      <c r="A6" s="252"/>
       <c r="B6" s="133" t="s">
         <v>517</v>
       </c>
@@ -7587,7 +7756,7 @@
       </c>
     </row>
     <row customHeight="1" ht="14.25" r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="246"/>
+      <c r="A7" s="252"/>
       <c r="B7" s="134" t="s">
         <v>284</v>
       </c>
@@ -7611,7 +7780,7 @@
       </c>
     </row>
     <row customHeight="1" ht="14.25" r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="246"/>
+      <c r="A8" s="252"/>
       <c r="B8" s="135" t="s">
         <v>160</v>
       </c>
@@ -7635,7 +7804,7 @@
       </c>
     </row>
     <row customHeight="1" ht="14.25" r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="246"/>
+      <c r="A9" s="252"/>
       <c r="B9" s="136" t="s">
         <v>22</v>
       </c>
@@ -7691,6 +7860,506 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+  <dimension ref="A1:W12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U17" sqref="U17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row customFormat="1" ht="45" r="1" s="122" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="193" t="s">
+        <v>583</v>
+      </c>
+      <c r="B1" s="193" t="s">
+        <v>584</v>
+      </c>
+      <c r="C1" s="192" t="s">
+        <v>585</v>
+      </c>
+      <c r="D1" s="190" t="s">
+        <v>578</v>
+      </c>
+      <c r="E1" s="191" t="s">
+        <v>579</v>
+      </c>
+      <c r="F1" t="s" s="255">
+        <v>593</v>
+      </c>
+      <c r="G1" t="s" s="255">
+        <v>594</v>
+      </c>
+      <c r="H1" t="s" s="255">
+        <v>595</v>
+      </c>
+      <c r="I1" t="s" s="255">
+        <v>596</v>
+      </c>
+      <c r="J1" t="s" s="255">
+        <v>597</v>
+      </c>
+      <c r="K1" t="s" s="255">
+        <v>598</v>
+      </c>
+      <c r="L1" t="s" s="255">
+        <v>599</v>
+      </c>
+      <c r="M1" t="s" s="255">
+        <v>600</v>
+      </c>
+      <c r="N1" t="s" s="255">
+        <v>601</v>
+      </c>
+      <c r="O1" t="s" s="255">
+        <v>602</v>
+      </c>
+      <c r="P1" t="s" s="255">
+        <v>603</v>
+      </c>
+      <c r="Q1" t="s" s="255">
+        <v>354</v>
+      </c>
+      <c r="R1" t="s" s="255">
+        <v>356</v>
+      </c>
+      <c r="S1" t="s" s="255">
+        <v>20</v>
+      </c>
+      <c r="T1" t="s" s="255">
+        <v>264</v>
+      </c>
+      <c r="U1" t="s" s="255">
+        <v>162</v>
+      </c>
+      <c r="V1" t="s" s="255">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="Q2" t="s" s="256">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>608</v>
+      </c>
+      <c r="B3" t="s">
+        <v>611</v>
+      </c>
+      <c r="C3" t="s">
+        <v>610</v>
+      </c>
+      <c r="D3" t="s">
+        <v>612</v>
+      </c>
+      <c r="F3" t="s">
+        <v>617</v>
+      </c>
+      <c r="G3" t="s">
+        <v>618</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
+        <v>613</v>
+      </c>
+      <c r="J3" t="s">
+        <v>614</v>
+      </c>
+      <c r="K3" t="s">
+        <v>615</v>
+      </c>
+      <c r="N3" t="s">
+        <v>604</v>
+      </c>
+      <c r="O3" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q3" t="s" s="257">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>608</v>
+      </c>
+      <c r="B4" t="s">
+        <v>611</v>
+      </c>
+      <c r="C4" t="s">
+        <v>610</v>
+      </c>
+      <c r="D4" t="s">
+        <v>620</v>
+      </c>
+      <c r="F4" t="s">
+        <v>617</v>
+      </c>
+      <c r="G4" t="s">
+        <v>618</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" t="s">
+        <v>613</v>
+      </c>
+      <c r="J4" t="s">
+        <v>614</v>
+      </c>
+      <c r="K4" t="s">
+        <v>615</v>
+      </c>
+      <c r="N4" t="s">
+        <v>604</v>
+      </c>
+      <c r="O4" t="s">
+        <v>619</v>
+      </c>
+      <c r="Q4" t="s" s="258">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>608</v>
+      </c>
+      <c r="B5" t="s">
+        <v>611</v>
+      </c>
+      <c r="C5" t="s">
+        <v>610</v>
+      </c>
+      <c r="D5" t="s">
+        <v>622</v>
+      </c>
+      <c r="F5" t="s">
+        <v>617</v>
+      </c>
+      <c r="G5" t="s">
+        <v>618</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" t="s">
+        <v>613</v>
+      </c>
+      <c r="J5" t="s">
+        <v>623</v>
+      </c>
+      <c r="K5" t="s">
+        <v>615</v>
+      </c>
+      <c r="N5" t="s">
+        <v>604</v>
+      </c>
+      <c r="O5" t="s">
+        <v>621</v>
+      </c>
+      <c r="Q5" t="s" s="259">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>608</v>
+      </c>
+      <c r="B6" t="s">
+        <v>611</v>
+      </c>
+      <c r="C6" t="s">
+        <v>610</v>
+      </c>
+      <c r="D6" t="s">
+        <v>625</v>
+      </c>
+      <c r="F6" t="s">
+        <v>617</v>
+      </c>
+      <c r="G6" t="s">
+        <v>618</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" t="s">
+        <v>613</v>
+      </c>
+      <c r="J6" t="s">
+        <v>623</v>
+      </c>
+      <c r="K6" t="s">
+        <v>615</v>
+      </c>
+      <c r="N6" t="s">
+        <v>604</v>
+      </c>
+      <c r="O6" t="s">
+        <v>624</v>
+      </c>
+      <c r="Q6" t="s" s="260">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>608</v>
+      </c>
+      <c r="B7" t="s">
+        <v>611</v>
+      </c>
+      <c r="C7" t="s">
+        <v>627</v>
+      </c>
+      <c r="D7" t="s">
+        <v>612</v>
+      </c>
+      <c r="F7" t="s">
+        <v>617</v>
+      </c>
+      <c r="G7" t="s">
+        <v>618</v>
+      </c>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s">
+        <v>613</v>
+      </c>
+      <c r="J7" t="s">
+        <v>614</v>
+      </c>
+      <c r="K7" t="s">
+        <v>615</v>
+      </c>
+      <c r="N7" t="s">
+        <v>626</v>
+      </c>
+      <c r="O7" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q7" t="s" s="261">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>608</v>
+      </c>
+      <c r="B8" t="s">
+        <v>611</v>
+      </c>
+      <c r="C8" t="s">
+        <v>627</v>
+      </c>
+      <c r="D8" t="s">
+        <v>620</v>
+      </c>
+      <c r="F8" t="s">
+        <v>617</v>
+      </c>
+      <c r="G8" t="s">
+        <v>618</v>
+      </c>
+      <c r="H8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" t="s">
+        <v>613</v>
+      </c>
+      <c r="J8" t="s">
+        <v>614</v>
+      </c>
+      <c r="K8" t="s">
+        <v>615</v>
+      </c>
+      <c r="N8" t="s">
+        <v>626</v>
+      </c>
+      <c r="O8" t="s">
+        <v>619</v>
+      </c>
+      <c r="Q8" t="s" s="262">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>608</v>
+      </c>
+      <c r="B9" t="s">
+        <v>611</v>
+      </c>
+      <c r="C9" t="s">
+        <v>627</v>
+      </c>
+      <c r="D9" t="s">
+        <v>622</v>
+      </c>
+      <c r="F9" t="s">
+        <v>617</v>
+      </c>
+      <c r="G9" t="s">
+        <v>618</v>
+      </c>
+      <c r="H9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" t="s">
+        <v>613</v>
+      </c>
+      <c r="J9" t="s">
+        <v>623</v>
+      </c>
+      <c r="K9" t="s">
+        <v>615</v>
+      </c>
+      <c r="N9" t="s">
+        <v>626</v>
+      </c>
+      <c r="O9" t="s">
+        <v>621</v>
+      </c>
+      <c r="Q9" t="s" s="263">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>608</v>
+      </c>
+      <c r="B10" t="s">
+        <v>611</v>
+      </c>
+      <c r="C10" t="s">
+        <v>627</v>
+      </c>
+      <c r="D10" t="s">
+        <v>625</v>
+      </c>
+      <c r="F10" t="s">
+        <v>617</v>
+      </c>
+      <c r="G10" t="s">
+        <v>618</v>
+      </c>
+      <c r="H10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" t="s">
+        <v>613</v>
+      </c>
+      <c r="J10" t="s">
+        <v>623</v>
+      </c>
+      <c r="K10" t="s">
+        <v>615</v>
+      </c>
+      <c r="N10" t="s">
+        <v>626</v>
+      </c>
+      <c r="O10" t="s">
+        <v>624</v>
+      </c>
+      <c r="Q10" t="s" s="264">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>608</v>
+      </c>
+      <c r="B11" t="s">
+        <v>611</v>
+      </c>
+      <c r="C11" t="s">
+        <v>629</v>
+      </c>
+      <c r="D11" t="s">
+        <v>612</v>
+      </c>
+      <c r="F11" t="s">
+        <v>617</v>
+      </c>
+      <c r="G11" t="s">
+        <v>618</v>
+      </c>
+      <c r="H11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" t="s">
+        <v>613</v>
+      </c>
+      <c r="J11" t="s">
+        <v>614</v>
+      </c>
+      <c r="K11" t="s">
+        <v>615</v>
+      </c>
+      <c r="N11" t="s">
+        <v>628</v>
+      </c>
+      <c r="O11" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q11" t="s" s="265">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>608</v>
+      </c>
+      <c r="B12" t="s">
+        <v>611</v>
+      </c>
+      <c r="C12" t="s">
+        <v>629</v>
+      </c>
+      <c r="D12" t="s">
+        <v>620</v>
+      </c>
+      <c r="F12" t="s">
+        <v>617</v>
+      </c>
+      <c r="G12" t="s">
+        <v>618</v>
+      </c>
+      <c r="H12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" t="s">
+        <v>613</v>
+      </c>
+      <c r="J12" t="s">
+        <v>614</v>
+      </c>
+      <c r="K12" t="s">
+        <v>615</v>
+      </c>
+      <c r="N12" t="s">
+        <v>628</v>
+      </c>
+      <c r="O12" t="s">
+        <v>619</v>
+      </c>
+      <c r="Q12" t="s" s="266">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7715,16 +8384,16 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B3" s="202" t="s">
+      <c r="B3" s="208" t="s">
         <v>173</v>
       </c>
-      <c r="C3" s="202"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="202"/>
-      <c r="F3" s="202"/>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="202"/>
+      <c r="C3" s="208"/>
+      <c r="D3" s="208"/>
+      <c r="E3" s="208"/>
+      <c r="F3" s="208"/>
+      <c r="G3" s="208"/>
+      <c r="H3" s="208"/>
+      <c r="I3" s="208"/>
     </row>
     <row ht="15" r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
@@ -8015,7 +8684,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22905.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22906.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:U32"/>
   <sheetViews>
@@ -8024,88 +8693,88 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="248">
-        <v>579</v>
-      </c>
-      <c r="B1" t="s" s="249">
-        <v>580</v>
-      </c>
-      <c r="C1" t="s" s="250">
-        <v>581</v>
-      </c>
-      <c r="D1" t="s" s="251">
-        <v>582</v>
-      </c>
-      <c r="E1" t="s" s="252">
+      <c r="A1" t="s" s="254">
+        <v>587</v>
+      </c>
+      <c r="B1" t="s" s="254">
+        <v>588</v>
+      </c>
+      <c r="C1" t="s" s="254">
+        <v>589</v>
+      </c>
+      <c r="D1" t="s" s="254">
+        <v>590</v>
+      </c>
+      <c r="E1" t="s" s="254">
+        <v>591</v>
+      </c>
+      <c r="F1" t="s" s="254">
+        <v>592</v>
+      </c>
+      <c r="G1" t="s" s="267">
         <v>583</v>
       </c>
-      <c r="F1" t="s" s="253">
-        <v>584</v>
-      </c>
-      <c r="G1" t="s" s="254">
-        <v>610</v>
-      </c>
-      <c r="I1" t="s" s="255">
-        <v>613</v>
-      </c>
-      <c r="K1" t="s" s="256">
-        <v>614</v>
-      </c>
-      <c r="M1" t="s" s="257">
-        <v>615</v>
-      </c>
-      <c r="O1" t="s" s="258">
-        <v>616</v>
-      </c>
-      <c r="Q1" t="s" s="259">
-        <v>617</v>
-      </c>
-      <c r="S1" t="s" s="260">
-        <v>618</v>
+      <c r="I1" t="s" s="268">
+        <v>632</v>
+      </c>
+      <c r="K1" t="s" s="269">
+        <v>633</v>
+      </c>
+      <c r="M1" t="s" s="270">
+        <v>634</v>
+      </c>
+      <c r="O1" t="s" s="271">
+        <v>635</v>
+      </c>
+      <c r="Q1" t="s" s="272">
+        <v>636</v>
+      </c>
+      <c r="S1" t="s" s="273">
+        <v>637</v>
       </c>
     </row>
     <row r="2">
       <c r="G2" t="s">
-        <v>611</v>
+        <v>630</v>
       </c>
       <c r="H2" t="s">
-        <v>612</v>
+        <v>631</v>
       </c>
       <c r="I2" t="s">
-        <v>611</v>
+        <v>630</v>
       </c>
       <c r="J2" t="s">
-        <v>612</v>
+        <v>631</v>
       </c>
       <c r="K2" t="s">
-        <v>611</v>
+        <v>630</v>
       </c>
       <c r="L2" t="s">
-        <v>612</v>
+        <v>631</v>
       </c>
       <c r="M2" t="s">
-        <v>611</v>
+        <v>630</v>
       </c>
       <c r="N2" t="s">
-        <v>612</v>
+        <v>631</v>
       </c>
       <c r="O2" t="s">
-        <v>611</v>
+        <v>630</v>
       </c>
       <c r="P2" t="s">
-        <v>612</v>
+        <v>631</v>
       </c>
       <c r="Q2" t="s">
-        <v>611</v>
+        <v>630</v>
       </c>
       <c r="R2" t="s">
-        <v>612</v>
+        <v>631</v>
       </c>
       <c r="S2" t="s">
-        <v>611</v>
+        <v>630</v>
       </c>
       <c r="T2" t="s">
-        <v>612</v>
+        <v>631</v>
       </c>
     </row>
     <row r="3">
@@ -8118,58 +8787,58 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>587</v>
+        <v>606</v>
       </c>
       <c r="D4" t="s">
-        <v>585</v>
+        <v>604</v>
       </c>
       <c r="E4" t="s">
-        <v>586</v>
+        <v>605</v>
       </c>
       <c r="F4" t="s">
-        <v>588</v>
+        <v>607</v>
       </c>
       <c r="G4" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="H4" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="I4" t="s">
-        <v>590</v>
+        <v>609</v>
       </c>
       <c r="J4" t="s">
-        <v>590</v>
+        <v>609</v>
       </c>
       <c r="K4" t="s">
-        <v>591</v>
+        <v>610</v>
       </c>
       <c r="L4" t="s">
-        <v>591</v>
+        <v>610</v>
       </c>
       <c r="M4" t="s">
-        <v>592</v>
+        <v>611</v>
       </c>
       <c r="N4" t="s">
-        <v>592</v>
+        <v>611</v>
       </c>
       <c r="O4" t="s">
-        <v>593</v>
+        <v>612</v>
       </c>
       <c r="P4" t="s">
-        <v>593</v>
+        <v>612</v>
       </c>
       <c r="Q4" t="s">
-        <v>594</v>
+        <v>613</v>
       </c>
       <c r="R4" t="s">
-        <v>594</v>
+        <v>613</v>
       </c>
       <c r="S4" t="s">
-        <v>595</v>
+        <v>614</v>
       </c>
       <c r="T4" t="s">
-        <v>595</v>
+        <v>614</v>
       </c>
     </row>
     <row r="5">
@@ -8177,58 +8846,58 @@
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>587</v>
+        <v>606</v>
       </c>
       <c r="D5" t="s">
-        <v>585</v>
+        <v>604</v>
       </c>
       <c r="E5" t="s">
-        <v>586</v>
+        <v>605</v>
       </c>
       <c r="F5" t="s">
-        <v>596</v>
+        <v>616</v>
       </c>
       <c r="G5" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="H5" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="I5" t="s">
-        <v>590</v>
+        <v>609</v>
       </c>
       <c r="J5" t="s">
-        <v>590</v>
+        <v>609</v>
       </c>
       <c r="K5" t="s">
-        <v>591</v>
+        <v>610</v>
       </c>
       <c r="L5" t="s">
-        <v>591</v>
+        <v>610</v>
       </c>
       <c r="M5" t="s">
-        <v>592</v>
+        <v>611</v>
       </c>
       <c r="N5" t="s">
-        <v>592</v>
+        <v>611</v>
       </c>
       <c r="O5" t="s">
-        <v>593</v>
+        <v>612</v>
       </c>
       <c r="P5" t="s">
-        <v>593</v>
+        <v>612</v>
       </c>
       <c r="Q5" t="s">
-        <v>597</v>
+        <v>617</v>
       </c>
       <c r="R5" t="s">
-        <v>597</v>
+        <v>617</v>
       </c>
       <c r="S5" t="s">
-        <v>598</v>
+        <v>618</v>
       </c>
       <c r="T5" t="s">
-        <v>598</v>
+        <v>618</v>
       </c>
     </row>
     <row r="6">
@@ -8241,58 +8910,58 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>587</v>
+        <v>606</v>
       </c>
       <c r="D7" t="s">
-        <v>585</v>
+        <v>604</v>
       </c>
       <c r="E7" t="s">
-        <v>599</v>
+        <v>619</v>
       </c>
       <c r="F7" t="s">
-        <v>588</v>
+        <v>607</v>
       </c>
       <c r="G7" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="H7" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="I7" t="s">
-        <v>590</v>
+        <v>609</v>
       </c>
       <c r="J7" t="s">
-        <v>590</v>
+        <v>609</v>
       </c>
       <c r="K7" t="s">
-        <v>591</v>
+        <v>610</v>
       </c>
       <c r="L7" t="s">
-        <v>591</v>
+        <v>610</v>
       </c>
       <c r="M7" t="s">
-        <v>592</v>
+        <v>611</v>
       </c>
       <c r="N7" t="s">
-        <v>592</v>
+        <v>611</v>
       </c>
       <c r="O7" t="s">
-        <v>600</v>
+        <v>620</v>
       </c>
       <c r="P7" t="s">
-        <v>600</v>
+        <v>620</v>
       </c>
       <c r="Q7" t="s">
-        <v>594</v>
+        <v>613</v>
       </c>
       <c r="R7" t="s">
-        <v>594</v>
+        <v>613</v>
       </c>
       <c r="S7" t="s">
-        <v>595</v>
+        <v>614</v>
       </c>
       <c r="T7" t="s">
-        <v>595</v>
+        <v>614</v>
       </c>
     </row>
     <row r="8">
@@ -8300,58 +8969,58 @@
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>587</v>
+        <v>606</v>
       </c>
       <c r="D8" t="s">
-        <v>585</v>
+        <v>604</v>
       </c>
       <c r="E8" t="s">
-        <v>599</v>
+        <v>619</v>
       </c>
       <c r="F8" t="s">
-        <v>596</v>
+        <v>616</v>
       </c>
       <c r="G8" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="H8" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="I8" t="s">
-        <v>590</v>
+        <v>609</v>
       </c>
       <c r="J8" t="s">
-        <v>590</v>
+        <v>609</v>
       </c>
       <c r="K8" t="s">
-        <v>591</v>
+        <v>610</v>
       </c>
       <c r="L8" t="s">
-        <v>591</v>
+        <v>610</v>
       </c>
       <c r="M8" t="s">
-        <v>592</v>
+        <v>611</v>
       </c>
       <c r="N8" t="s">
-        <v>592</v>
+        <v>611</v>
       </c>
       <c r="O8" t="s">
-        <v>600</v>
+        <v>620</v>
       </c>
       <c r="P8" t="s">
-        <v>600</v>
+        <v>620</v>
       </c>
       <c r="Q8" t="s">
-        <v>597</v>
+        <v>617</v>
       </c>
       <c r="R8" t="s">
-        <v>597</v>
+        <v>617</v>
       </c>
       <c r="S8" t="s">
-        <v>598</v>
+        <v>618</v>
       </c>
       <c r="T8" t="s">
-        <v>598</v>
+        <v>618</v>
       </c>
     </row>
     <row r="9">
@@ -8364,58 +9033,58 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>587</v>
+        <v>606</v>
       </c>
       <c r="D10" t="s">
-        <v>585</v>
+        <v>604</v>
       </c>
       <c r="E10" t="s">
-        <v>601</v>
+        <v>621</v>
       </c>
       <c r="F10" t="s">
-        <v>588</v>
+        <v>607</v>
       </c>
       <c r="G10" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="H10" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="I10" t="s">
-        <v>590</v>
+        <v>609</v>
       </c>
       <c r="J10" t="s">
-        <v>590</v>
+        <v>609</v>
       </c>
       <c r="K10" t="s">
-        <v>591</v>
+        <v>610</v>
       </c>
       <c r="L10" t="s">
-        <v>591</v>
+        <v>610</v>
       </c>
       <c r="M10" t="s">
-        <v>592</v>
+        <v>611</v>
       </c>
       <c r="N10" t="s">
-        <v>592</v>
+        <v>611</v>
       </c>
       <c r="O10" t="s">
-        <v>602</v>
+        <v>622</v>
       </c>
       <c r="P10" t="s">
-        <v>602</v>
+        <v>622</v>
       </c>
       <c r="Q10" t="s">
-        <v>594</v>
+        <v>613</v>
       </c>
       <c r="R10" t="s">
-        <v>594</v>
+        <v>613</v>
       </c>
       <c r="S10" t="s">
-        <v>603</v>
+        <v>623</v>
       </c>
       <c r="T10" t="s">
-        <v>603</v>
+        <v>623</v>
       </c>
     </row>
     <row r="11">
@@ -8423,58 +9092,58 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>587</v>
+        <v>606</v>
       </c>
       <c r="D11" t="s">
-        <v>585</v>
+        <v>604</v>
       </c>
       <c r="E11" t="s">
-        <v>601</v>
+        <v>621</v>
       </c>
       <c r="F11" t="s">
-        <v>596</v>
+        <v>616</v>
       </c>
       <c r="G11" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="H11" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="I11" t="s">
-        <v>590</v>
+        <v>609</v>
       </c>
       <c r="J11" t="s">
-        <v>590</v>
+        <v>609</v>
       </c>
       <c r="K11" t="s">
-        <v>591</v>
+        <v>610</v>
       </c>
       <c r="L11" t="s">
-        <v>591</v>
+        <v>610</v>
       </c>
       <c r="M11" t="s">
-        <v>592</v>
+        <v>611</v>
       </c>
       <c r="N11" t="s">
-        <v>592</v>
+        <v>611</v>
       </c>
       <c r="O11" t="s">
-        <v>602</v>
+        <v>622</v>
       </c>
       <c r="P11" t="s">
-        <v>602</v>
+        <v>622</v>
       </c>
       <c r="Q11" t="s">
-        <v>597</v>
+        <v>617</v>
       </c>
       <c r="R11" t="s">
-        <v>597</v>
+        <v>617</v>
       </c>
       <c r="S11" t="s">
-        <v>598</v>
+        <v>618</v>
       </c>
       <c r="T11" t="s">
-        <v>598</v>
+        <v>618</v>
       </c>
     </row>
     <row r="12">
@@ -8487,58 +9156,58 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>587</v>
+        <v>606</v>
       </c>
       <c r="D13" t="s">
-        <v>585</v>
+        <v>604</v>
       </c>
       <c r="E13" t="s">
-        <v>604</v>
+        <v>624</v>
       </c>
       <c r="F13" t="s">
-        <v>588</v>
+        <v>607</v>
       </c>
       <c r="G13" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="H13" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="I13" t="s">
-        <v>590</v>
+        <v>609</v>
       </c>
       <c r="J13" t="s">
-        <v>590</v>
+        <v>609</v>
       </c>
       <c r="K13" t="s">
-        <v>591</v>
+        <v>610</v>
       </c>
       <c r="L13" t="s">
-        <v>591</v>
+        <v>610</v>
       </c>
       <c r="M13" t="s">
-        <v>592</v>
+        <v>611</v>
       </c>
       <c r="N13" t="s">
-        <v>592</v>
+        <v>611</v>
       </c>
       <c r="O13" t="s">
-        <v>605</v>
+        <v>625</v>
       </c>
       <c r="P13" t="s">
-        <v>605</v>
+        <v>625</v>
       </c>
       <c r="Q13" t="s">
-        <v>594</v>
+        <v>613</v>
       </c>
       <c r="R13" t="s">
-        <v>594</v>
+        <v>613</v>
       </c>
       <c r="S13" t="s">
-        <v>603</v>
+        <v>623</v>
       </c>
       <c r="T13" t="s">
-        <v>603</v>
+        <v>623</v>
       </c>
     </row>
     <row r="14">
@@ -8546,58 +9215,58 @@
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>587</v>
+        <v>606</v>
       </c>
       <c r="D14" t="s">
-        <v>585</v>
+        <v>604</v>
       </c>
       <c r="E14" t="s">
-        <v>604</v>
+        <v>624</v>
       </c>
       <c r="F14" t="s">
-        <v>596</v>
+        <v>616</v>
       </c>
       <c r="G14" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="H14" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="I14" t="s">
-        <v>590</v>
+        <v>609</v>
       </c>
       <c r="J14" t="s">
-        <v>590</v>
+        <v>609</v>
       </c>
       <c r="K14" t="s">
-        <v>591</v>
+        <v>610</v>
       </c>
       <c r="L14" t="s">
-        <v>591</v>
+        <v>610</v>
       </c>
       <c r="M14" t="s">
-        <v>592</v>
+        <v>611</v>
       </c>
       <c r="N14" t="s">
-        <v>592</v>
+        <v>611</v>
       </c>
       <c r="O14" t="s">
-        <v>605</v>
+        <v>625</v>
       </c>
       <c r="P14" t="s">
-        <v>605</v>
+        <v>625</v>
       </c>
       <c r="Q14" t="s">
-        <v>597</v>
+        <v>617</v>
       </c>
       <c r="R14" t="s">
-        <v>597</v>
+        <v>617</v>
       </c>
       <c r="S14" t="s">
-        <v>598</v>
+        <v>618</v>
       </c>
       <c r="T14" t="s">
-        <v>598</v>
+        <v>618</v>
       </c>
     </row>
     <row r="15">
@@ -8610,58 +9279,58 @@
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>587</v>
+        <v>606</v>
       </c>
       <c r="D16" t="s">
-        <v>606</v>
+        <v>626</v>
       </c>
       <c r="E16" t="s">
-        <v>586</v>
+        <v>605</v>
       </c>
       <c r="F16" t="s">
-        <v>588</v>
+        <v>607</v>
       </c>
       <c r="G16" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="H16" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="I16" t="s">
-        <v>590</v>
+        <v>609</v>
       </c>
       <c r="J16" t="s">
-        <v>590</v>
+        <v>609</v>
       </c>
       <c r="K16" t="s">
-        <v>607</v>
+        <v>627</v>
       </c>
       <c r="L16" t="s">
-        <v>607</v>
+        <v>627</v>
       </c>
       <c r="M16" t="s">
-        <v>592</v>
+        <v>611</v>
       </c>
       <c r="N16" t="s">
-        <v>592</v>
+        <v>611</v>
       </c>
       <c r="O16" t="s">
-        <v>593</v>
+        <v>612</v>
       </c>
       <c r="P16" t="s">
-        <v>593</v>
+        <v>612</v>
       </c>
       <c r="Q16" t="s">
-        <v>594</v>
+        <v>613</v>
       </c>
       <c r="R16" t="s">
-        <v>594</v>
+        <v>613</v>
       </c>
       <c r="S16" t="s">
-        <v>595</v>
+        <v>614</v>
       </c>
       <c r="T16" t="s">
-        <v>595</v>
+        <v>614</v>
       </c>
     </row>
     <row r="17">
@@ -8669,58 +9338,58 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>587</v>
+        <v>606</v>
       </c>
       <c r="D17" t="s">
-        <v>606</v>
+        <v>626</v>
       </c>
       <c r="E17" t="s">
-        <v>586</v>
+        <v>605</v>
       </c>
       <c r="F17" t="s">
-        <v>596</v>
+        <v>616</v>
       </c>
       <c r="G17" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="H17" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="I17" t="s">
-        <v>590</v>
+        <v>609</v>
       </c>
       <c r="J17" t="s">
-        <v>590</v>
+        <v>609</v>
       </c>
       <c r="K17" t="s">
-        <v>607</v>
+        <v>627</v>
       </c>
       <c r="L17" t="s">
-        <v>607</v>
+        <v>627</v>
       </c>
       <c r="M17" t="s">
-        <v>592</v>
+        <v>611</v>
       </c>
       <c r="N17" t="s">
-        <v>592</v>
+        <v>611</v>
       </c>
       <c r="O17" t="s">
-        <v>593</v>
+        <v>612</v>
       </c>
       <c r="P17" t="s">
-        <v>593</v>
+        <v>612</v>
       </c>
       <c r="Q17" t="s">
-        <v>597</v>
+        <v>617</v>
       </c>
       <c r="R17" t="s">
-        <v>597</v>
+        <v>617</v>
       </c>
       <c r="S17" t="s">
-        <v>598</v>
+        <v>618</v>
       </c>
       <c r="T17" t="s">
-        <v>598</v>
+        <v>618</v>
       </c>
     </row>
     <row r="18">
@@ -8733,58 +9402,58 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>587</v>
+        <v>606</v>
       </c>
       <c r="D19" t="s">
-        <v>606</v>
+        <v>626</v>
       </c>
       <c r="E19" t="s">
-        <v>599</v>
+        <v>619</v>
       </c>
       <c r="F19" t="s">
-        <v>588</v>
+        <v>607</v>
       </c>
       <c r="G19" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="H19" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="I19" t="s">
-        <v>590</v>
+        <v>609</v>
       </c>
       <c r="J19" t="s">
-        <v>590</v>
+        <v>609</v>
       </c>
       <c r="K19" t="s">
-        <v>607</v>
+        <v>627</v>
       </c>
       <c r="L19" t="s">
-        <v>607</v>
+        <v>627</v>
       </c>
       <c r="M19" t="s">
-        <v>592</v>
+        <v>611</v>
       </c>
       <c r="N19" t="s">
-        <v>592</v>
+        <v>611</v>
       </c>
       <c r="O19" t="s">
-        <v>600</v>
+        <v>620</v>
       </c>
       <c r="P19" t="s">
-        <v>600</v>
+        <v>620</v>
       </c>
       <c r="Q19" t="s">
-        <v>594</v>
+        <v>613</v>
       </c>
       <c r="R19" t="s">
-        <v>594</v>
+        <v>613</v>
       </c>
       <c r="S19" t="s">
-        <v>595</v>
+        <v>614</v>
       </c>
       <c r="T19" t="s">
-        <v>595</v>
+        <v>614</v>
       </c>
     </row>
     <row r="20">
@@ -8792,58 +9461,58 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>587</v>
+        <v>606</v>
       </c>
       <c r="D20" t="s">
-        <v>606</v>
+        <v>626</v>
       </c>
       <c r="E20" t="s">
-        <v>599</v>
+        <v>619</v>
       </c>
       <c r="F20" t="s">
-        <v>596</v>
+        <v>616</v>
       </c>
       <c r="G20" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="H20" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="I20" t="s">
-        <v>590</v>
+        <v>609</v>
       </c>
       <c r="J20" t="s">
-        <v>590</v>
+        <v>609</v>
       </c>
       <c r="K20" t="s">
-        <v>607</v>
+        <v>627</v>
       </c>
       <c r="L20" t="s">
-        <v>607</v>
+        <v>627</v>
       </c>
       <c r="M20" t="s">
-        <v>592</v>
+        <v>611</v>
       </c>
       <c r="N20" t="s">
-        <v>592</v>
+        <v>611</v>
       </c>
       <c r="O20" t="s">
-        <v>600</v>
+        <v>620</v>
       </c>
       <c r="P20" t="s">
-        <v>600</v>
+        <v>620</v>
       </c>
       <c r="Q20" t="s">
-        <v>597</v>
+        <v>617</v>
       </c>
       <c r="R20" t="s">
-        <v>597</v>
+        <v>617</v>
       </c>
       <c r="S20" t="s">
-        <v>598</v>
+        <v>618</v>
       </c>
       <c r="T20" t="s">
-        <v>598</v>
+        <v>618</v>
       </c>
     </row>
     <row r="21">
@@ -8856,58 +9525,58 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>587</v>
+        <v>606</v>
       </c>
       <c r="D22" t="s">
-        <v>606</v>
+        <v>626</v>
       </c>
       <c r="E22" t="s">
-        <v>601</v>
+        <v>621</v>
       </c>
       <c r="F22" t="s">
-        <v>588</v>
+        <v>607</v>
       </c>
       <c r="G22" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="H22" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="I22" t="s">
-        <v>590</v>
+        <v>609</v>
       </c>
       <c r="J22" t="s">
-        <v>590</v>
+        <v>609</v>
       </c>
       <c r="K22" t="s">
-        <v>607</v>
+        <v>627</v>
       </c>
       <c r="L22" t="s">
-        <v>607</v>
+        <v>627</v>
       </c>
       <c r="M22" t="s">
-        <v>592</v>
+        <v>611</v>
       </c>
       <c r="N22" t="s">
-        <v>592</v>
+        <v>611</v>
       </c>
       <c r="O22" t="s">
-        <v>602</v>
+        <v>622</v>
       </c>
       <c r="P22" t="s">
-        <v>602</v>
+        <v>622</v>
       </c>
       <c r="Q22" t="s">
-        <v>594</v>
+        <v>613</v>
       </c>
       <c r="R22" t="s">
-        <v>594</v>
+        <v>613</v>
       </c>
       <c r="S22" t="s">
-        <v>603</v>
+        <v>623</v>
       </c>
       <c r="T22" t="s">
-        <v>603</v>
+        <v>623</v>
       </c>
     </row>
     <row r="23">
@@ -8915,58 +9584,58 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>587</v>
+        <v>606</v>
       </c>
       <c r="D23" t="s">
-        <v>606</v>
+        <v>626</v>
       </c>
       <c r="E23" t="s">
-        <v>601</v>
+        <v>621</v>
       </c>
       <c r="F23" t="s">
-        <v>596</v>
+        <v>616</v>
       </c>
       <c r="G23" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="H23" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="I23" t="s">
-        <v>590</v>
+        <v>609</v>
       </c>
       <c r="J23" t="s">
-        <v>590</v>
+        <v>609</v>
       </c>
       <c r="K23" t="s">
-        <v>607</v>
+        <v>627</v>
       </c>
       <c r="L23" t="s">
-        <v>607</v>
+        <v>627</v>
       </c>
       <c r="M23" t="s">
-        <v>592</v>
+        <v>611</v>
       </c>
       <c r="N23" t="s">
-        <v>592</v>
+        <v>611</v>
       </c>
       <c r="O23" t="s">
-        <v>602</v>
+        <v>622</v>
       </c>
       <c r="P23" t="s">
-        <v>602</v>
+        <v>622</v>
       </c>
       <c r="Q23" t="s">
-        <v>597</v>
+        <v>617</v>
       </c>
       <c r="R23" t="s">
-        <v>597</v>
+        <v>617</v>
       </c>
       <c r="S23" t="s">
-        <v>598</v>
+        <v>618</v>
       </c>
       <c r="T23" t="s">
-        <v>598</v>
+        <v>618</v>
       </c>
     </row>
     <row r="24">
@@ -8979,58 +9648,58 @@
         <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>587</v>
+        <v>606</v>
       </c>
       <c r="D25" t="s">
-        <v>606</v>
+        <v>626</v>
       </c>
       <c r="E25" t="s">
-        <v>604</v>
+        <v>624</v>
       </c>
       <c r="F25" t="s">
-        <v>588</v>
+        <v>607</v>
       </c>
       <c r="G25" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="H25" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="I25" t="s">
-        <v>590</v>
+        <v>609</v>
       </c>
       <c r="J25" t="s">
-        <v>590</v>
+        <v>609</v>
       </c>
       <c r="K25" t="s">
-        <v>607</v>
+        <v>627</v>
       </c>
       <c r="L25" t="s">
-        <v>607</v>
+        <v>627</v>
       </c>
       <c r="M25" t="s">
-        <v>592</v>
+        <v>611</v>
       </c>
       <c r="N25" t="s">
-        <v>592</v>
+        <v>611</v>
       </c>
       <c r="O25" t="s">
-        <v>605</v>
+        <v>625</v>
       </c>
       <c r="P25" t="s">
-        <v>605</v>
+        <v>625</v>
       </c>
       <c r="Q25" t="s">
-        <v>594</v>
+        <v>613</v>
       </c>
       <c r="R25" t="s">
-        <v>594</v>
+        <v>613</v>
       </c>
       <c r="S25" t="s">
-        <v>603</v>
+        <v>623</v>
       </c>
       <c r="T25" t="s">
-        <v>603</v>
+        <v>623</v>
       </c>
     </row>
     <row r="26">
@@ -9038,58 +9707,58 @@
         <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>587</v>
+        <v>606</v>
       </c>
       <c r="D26" t="s">
-        <v>606</v>
+        <v>626</v>
       </c>
       <c r="E26" t="s">
-        <v>604</v>
+        <v>624</v>
       </c>
       <c r="F26" t="s">
-        <v>596</v>
+        <v>616</v>
       </c>
       <c r="G26" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="H26" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="I26" t="s">
-        <v>590</v>
+        <v>609</v>
       </c>
       <c r="J26" t="s">
-        <v>590</v>
+        <v>609</v>
       </c>
       <c r="K26" t="s">
-        <v>607</v>
+        <v>627</v>
       </c>
       <c r="L26" t="s">
-        <v>607</v>
+        <v>627</v>
       </c>
       <c r="M26" t="s">
-        <v>592</v>
+        <v>611</v>
       </c>
       <c r="N26" t="s">
-        <v>592</v>
+        <v>611</v>
       </c>
       <c r="O26" t="s">
-        <v>605</v>
+        <v>625</v>
       </c>
       <c r="P26" t="s">
-        <v>605</v>
+        <v>625</v>
       </c>
       <c r="Q26" t="s">
-        <v>597</v>
+        <v>617</v>
       </c>
       <c r="R26" t="s">
-        <v>597</v>
+        <v>617</v>
       </c>
       <c r="S26" t="s">
-        <v>598</v>
+        <v>618</v>
       </c>
       <c r="T26" t="s">
-        <v>598</v>
+        <v>618</v>
       </c>
     </row>
     <row r="27">
@@ -9102,58 +9771,58 @@
         <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>587</v>
+        <v>606</v>
       </c>
       <c r="D28" t="s">
+        <v>628</v>
+      </c>
+      <c r="E28" t="s">
+        <v>605</v>
+      </c>
+      <c r="F28" t="s">
+        <v>607</v>
+      </c>
+      <c r="G28" t="s">
         <v>608</v>
       </c>
-      <c r="E28" t="s">
-        <v>586</v>
-      </c>
-      <c r="F28" t="s">
-        <v>588</v>
-      </c>
-      <c r="G28" t="s">
-        <v>589</v>
-      </c>
       <c r="H28" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="I28" t="s">
-        <v>590</v>
+        <v>609</v>
       </c>
       <c r="J28" t="s">
-        <v>590</v>
+        <v>609</v>
       </c>
       <c r="K28" t="s">
-        <v>609</v>
+        <v>629</v>
       </c>
       <c r="L28" t="s">
-        <v>609</v>
+        <v>629</v>
       </c>
       <c r="M28" t="s">
-        <v>592</v>
+        <v>611</v>
       </c>
       <c r="N28" t="s">
-        <v>592</v>
+        <v>611</v>
       </c>
       <c r="O28" t="s">
-        <v>593</v>
+        <v>612</v>
       </c>
       <c r="P28" t="s">
-        <v>593</v>
+        <v>612</v>
       </c>
       <c r="Q28" t="s">
-        <v>594</v>
+        <v>613</v>
       </c>
       <c r="R28" t="s">
-        <v>594</v>
+        <v>613</v>
       </c>
       <c r="S28" t="s">
-        <v>595</v>
+        <v>614</v>
       </c>
       <c r="T28" t="s">
-        <v>595</v>
+        <v>614</v>
       </c>
     </row>
     <row r="29">
@@ -9161,58 +9830,58 @@
         <v>22</v>
       </c>
       <c r="C29" t="s">
-        <v>587</v>
+        <v>606</v>
       </c>
       <c r="D29" t="s">
+        <v>628</v>
+      </c>
+      <c r="E29" t="s">
+        <v>605</v>
+      </c>
+      <c r="F29" t="s">
+        <v>616</v>
+      </c>
+      <c r="G29" t="s">
         <v>608</v>
       </c>
-      <c r="E29" t="s">
-        <v>586</v>
-      </c>
-      <c r="F29" t="s">
-        <v>596</v>
-      </c>
-      <c r="G29" t="s">
-        <v>589</v>
-      </c>
       <c r="H29" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="I29" t="s">
-        <v>590</v>
+        <v>609</v>
       </c>
       <c r="J29" t="s">
-        <v>590</v>
+        <v>609</v>
       </c>
       <c r="K29" t="s">
-        <v>609</v>
+        <v>629</v>
       </c>
       <c r="L29" t="s">
-        <v>609</v>
+        <v>629</v>
       </c>
       <c r="M29" t="s">
-        <v>592</v>
+        <v>611</v>
       </c>
       <c r="N29" t="s">
-        <v>592</v>
+        <v>611</v>
       </c>
       <c r="O29" t="s">
-        <v>593</v>
+        <v>612</v>
       </c>
       <c r="P29" t="s">
-        <v>593</v>
+        <v>612</v>
       </c>
       <c r="Q29" t="s">
-        <v>597</v>
+        <v>617</v>
       </c>
       <c r="R29" t="s">
-        <v>597</v>
+        <v>617</v>
       </c>
       <c r="S29" t="s">
-        <v>598</v>
+        <v>618</v>
       </c>
       <c r="T29" t="s">
-        <v>598</v>
+        <v>618</v>
       </c>
     </row>
     <row r="30">
@@ -9225,58 +9894,58 @@
         <v>22</v>
       </c>
       <c r="C31" t="s">
-        <v>587</v>
+        <v>606</v>
       </c>
       <c r="D31" t="s">
+        <v>628</v>
+      </c>
+      <c r="E31" t="s">
+        <v>619</v>
+      </c>
+      <c r="F31" t="s">
+        <v>607</v>
+      </c>
+      <c r="G31" t="s">
         <v>608</v>
       </c>
-      <c r="E31" t="s">
-        <v>599</v>
-      </c>
-      <c r="F31" t="s">
-        <v>588</v>
-      </c>
-      <c r="G31" t="s">
-        <v>589</v>
-      </c>
       <c r="H31" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="I31" t="s">
-        <v>590</v>
+        <v>609</v>
       </c>
       <c r="J31" t="s">
-        <v>590</v>
+        <v>609</v>
       </c>
       <c r="K31" t="s">
-        <v>609</v>
+        <v>629</v>
       </c>
       <c r="L31" t="s">
-        <v>609</v>
+        <v>629</v>
       </c>
       <c r="M31" t="s">
-        <v>592</v>
+        <v>611</v>
       </c>
       <c r="N31" t="s">
-        <v>592</v>
+        <v>611</v>
       </c>
       <c r="O31" t="s">
-        <v>600</v>
+        <v>620</v>
       </c>
       <c r="P31" t="s">
-        <v>600</v>
+        <v>620</v>
       </c>
       <c r="Q31" t="s">
-        <v>594</v>
+        <v>613</v>
       </c>
       <c r="R31" t="s">
-        <v>594</v>
+        <v>613</v>
       </c>
       <c r="S31" t="s">
-        <v>595</v>
+        <v>614</v>
       </c>
       <c r="T31" t="s">
-        <v>595</v>
+        <v>614</v>
       </c>
     </row>
     <row r="32">
@@ -9284,58 +9953,58 @@
         <v>22</v>
       </c>
       <c r="C32" t="s">
-        <v>587</v>
+        <v>606</v>
       </c>
       <c r="D32" t="s">
+        <v>628</v>
+      </c>
+      <c r="E32" t="s">
+        <v>619</v>
+      </c>
+      <c r="F32" t="s">
+        <v>616</v>
+      </c>
+      <c r="G32" t="s">
         <v>608</v>
       </c>
-      <c r="E32" t="s">
-        <v>599</v>
-      </c>
-      <c r="F32" t="s">
-        <v>596</v>
-      </c>
-      <c r="G32" t="s">
-        <v>589</v>
-      </c>
       <c r="H32" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="I32" t="s">
-        <v>590</v>
+        <v>609</v>
       </c>
       <c r="J32" t="s">
-        <v>590</v>
+        <v>609</v>
       </c>
       <c r="K32" t="s">
-        <v>609</v>
+        <v>629</v>
       </c>
       <c r="L32" t="s">
-        <v>609</v>
+        <v>629</v>
       </c>
       <c r="M32" t="s">
-        <v>592</v>
+        <v>611</v>
       </c>
       <c r="N32" t="s">
-        <v>592</v>
+        <v>611</v>
       </c>
       <c r="O32" t="s">
-        <v>600</v>
+        <v>620</v>
       </c>
       <c r="P32" t="s">
-        <v>600</v>
+        <v>620</v>
       </c>
       <c r="Q32" t="s">
-        <v>597</v>
+        <v>617</v>
       </c>
       <c r="R32" t="s">
-        <v>597</v>
+        <v>617</v>
       </c>
       <c r="S32" t="s">
-        <v>598</v>
+        <v>618</v>
       </c>
       <c r="T32" t="s">
-        <v>598</v>
+        <v>618</v>
       </c>
     </row>
   </sheetData>
@@ -9386,11 +10055,11 @@
       <c r="B4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="207" t="s">
+      <c r="C4" s="213" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="207"/>
-      <c r="E4" s="207"/>
+      <c r="D4" s="213"/>
+      <c r="E4" s="213"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
@@ -9407,7 +10076,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="203" t="s">
+      <c r="B7" s="209" t="s">
         <v>481</v>
       </c>
       <c r="C7" s="118" t="s">
@@ -9421,7 +10090,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="204"/>
+      <c r="B8" s="210"/>
       <c r="C8" s="118" t="s">
         <v>160</v>
       </c>
@@ -9433,7 +10102,7 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="204"/>
+      <c r="B9" s="210"/>
       <c r="C9" s="118" t="s">
         <v>284</v>
       </c>
@@ -9445,7 +10114,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="204"/>
+      <c r="B10" s="210"/>
       <c r="C10" s="118" t="s">
         <v>29</v>
       </c>
@@ -9457,7 +10126,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="205"/>
+      <c r="B11" s="211"/>
       <c r="C11" s="118" t="s">
         <v>30</v>
       </c>
@@ -9469,7 +10138,7 @@
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="203" t="s">
+      <c r="B12" s="209" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="118" t="s">
@@ -9483,7 +10152,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="205"/>
+      <c r="B13" s="211"/>
       <c r="C13" s="118" t="s">
         <v>96</v>
       </c>
@@ -9495,7 +10164,7 @@
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="208" t="s">
+      <c r="B14" s="214" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="118" t="s">
@@ -9509,7 +10178,7 @@
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="209"/>
+      <c r="B15" s="215"/>
       <c r="C15" s="118" t="s">
         <v>27</v>
       </c>
@@ -9521,7 +10190,7 @@
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="206" t="s">
+      <c r="B16" s="212" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="118" t="s">
@@ -9535,7 +10204,7 @@
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="206"/>
+      <c r="B17" s="212"/>
       <c r="C17" s="118" t="s">
         <v>359</v>
       </c>
@@ -9547,7 +10216,7 @@
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="206"/>
+      <c r="B18" s="212"/>
       <c r="C18" s="118" t="s">
         <v>31</v>
       </c>
@@ -9559,7 +10228,7 @@
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="206" t="s">
+      <c r="B19" s="212" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="119" t="s">
@@ -9573,7 +10242,7 @@
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="206"/>
+      <c r="B20" s="212"/>
       <c r="C20" s="119" t="s">
         <v>359</v>
       </c>
@@ -9585,7 +10254,7 @@
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B21" s="206"/>
+      <c r="B21" s="212"/>
       <c r="C21" s="119" t="s">
         <v>360</v>
       </c>
@@ -9597,7 +10266,7 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="203" t="s">
+      <c r="B22" s="209" t="s">
         <v>474</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -9611,7 +10280,7 @@
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B23" s="204"/>
+      <c r="B23" s="210"/>
       <c r="C23" s="3" t="s">
         <v>476</v>
       </c>
@@ -9623,7 +10292,7 @@
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B24" s="204"/>
+      <c r="B24" s="210"/>
       <c r="C24" s="3" t="s">
         <v>477</v>
       </c>
@@ -9635,7 +10304,7 @@
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B25" s="205"/>
+      <c r="B25" s="211"/>
       <c r="C25" s="3" t="s">
         <v>478</v>
       </c>
@@ -9647,7 +10316,7 @@
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B26" s="203" t="s">
+      <c r="B26" s="209" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -9661,7 +10330,7 @@
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B27" s="204"/>
+      <c r="B27" s="210"/>
       <c r="C27" s="3" t="s">
         <v>325</v>
       </c>
@@ -9673,7 +10342,7 @@
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B28" s="204"/>
+      <c r="B28" s="210"/>
       <c r="C28" s="3" t="s">
         <v>362</v>
       </c>
@@ -9685,7 +10354,7 @@
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B29" s="204"/>
+      <c r="B29" s="210"/>
       <c r="C29" s="3" t="s">
         <v>326</v>
       </c>
@@ -9697,7 +10366,7 @@
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B30" s="205"/>
+      <c r="B30" s="211"/>
       <c r="C30" s="3" t="s">
         <v>363</v>
       </c>
@@ -12215,73 +12884,73 @@
   </cols>
   <sheetData>
     <row customFormat="1" ht="26.25" r="1" s="29" spans="1:10" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="216" t="s">
+      <c r="A1" s="222" t="s">
         <v>235</v>
       </c>
-      <c r="B1" s="217"/>
-      <c r="C1" s="217"/>
-      <c r="D1" s="217"/>
-      <c r="E1" s="217"/>
-      <c r="F1" s="217"/>
-      <c r="G1" s="217"/>
-      <c r="H1" s="217"/>
-      <c r="I1" s="218"/>
+      <c r="B1" s="223"/>
+      <c r="C1" s="223"/>
+      <c r="D1" s="223"/>
+      <c r="E1" s="223"/>
+      <c r="F1" s="223"/>
+      <c r="G1" s="223"/>
+      <c r="H1" s="223"/>
+      <c r="I1" s="224"/>
     </row>
     <row ht="13.5" r="2" spans="1:10" thickBot="1" x14ac:dyDescent="0.25"/>
     <row ht="13.5" r="3" spans="1:10" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="219" t="s">
+      <c r="A3" s="225" t="s">
         <v>201</v>
       </c>
-      <c r="B3" s="220"/>
-      <c r="C3" s="220"/>
-      <c r="D3" s="220"/>
-      <c r="E3" s="220"/>
-      <c r="F3" s="220"/>
-      <c r="G3" s="220"/>
-      <c r="H3" s="220"/>
-      <c r="I3" s="221"/>
+      <c r="B3" s="226"/>
+      <c r="C3" s="226"/>
+      <c r="D3" s="226"/>
+      <c r="E3" s="226"/>
+      <c r="F3" s="226"/>
+      <c r="G3" s="226"/>
+      <c r="H3" s="226"/>
+      <c r="I3" s="227"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="50" t="s">
         <v>202</v>
       </c>
-      <c r="B4" s="222"/>
-      <c r="C4" s="222"/>
-      <c r="D4" s="222"/>
-      <c r="E4" s="222"/>
-      <c r="F4" s="222"/>
-      <c r="G4" s="222"/>
-      <c r="H4" s="222"/>
-      <c r="I4" s="223"/>
+      <c r="B4" s="228"/>
+      <c r="C4" s="228"/>
+      <c r="D4" s="228"/>
+      <c r="E4" s="228"/>
+      <c r="F4" s="228"/>
+      <c r="G4" s="228"/>
+      <c r="H4" s="228"/>
+      <c r="I4" s="229"/>
     </row>
     <row ht="13.5" r="5" spans="1:10" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="51" t="s">
         <v>203</v>
       </c>
-      <c r="B5" s="224"/>
-      <c r="C5" s="225"/>
-      <c r="D5" s="225"/>
-      <c r="E5" s="225"/>
-      <c r="F5" s="225"/>
-      <c r="G5" s="225"/>
-      <c r="H5" s="225"/>
-      <c r="I5" s="226"/>
+      <c r="B5" s="230"/>
+      <c r="C5" s="231"/>
+      <c r="D5" s="231"/>
+      <c r="E5" s="231"/>
+      <c r="F5" s="231"/>
+      <c r="G5" s="231"/>
+      <c r="H5" s="231"/>
+      <c r="I5" s="232"/>
     </row>
     <row ht="13.5" r="6" spans="1:10" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J6" s="68"/>
     </row>
     <row ht="13.5" r="7" spans="1:10" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="227" t="s">
+      <c r="A7" s="233" t="s">
         <v>236</v>
       </c>
-      <c r="B7" s="228"/>
-      <c r="C7" s="228"/>
-      <c r="D7" s="228"/>
-      <c r="E7" s="228"/>
-      <c r="F7" s="228"/>
-      <c r="G7" s="228"/>
-      <c r="H7" s="228"/>
-      <c r="I7" s="229"/>
+      <c r="B7" s="234"/>
+      <c r="C7" s="234"/>
+      <c r="D7" s="234"/>
+      <c r="E7" s="234"/>
+      <c r="F7" s="234"/>
+      <c r="G7" s="234"/>
+      <c r="H7" s="234"/>
+      <c r="I7" s="235"/>
     </row>
     <row ht="13.5" r="8" spans="1:10" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="48" t="s">
@@ -12424,32 +13093,32 @@
     </row>
     <row ht="13.5" r="19" spans="1:9" thickBot="1" x14ac:dyDescent="0.25"/>
     <row ht="13.5" r="20" spans="1:9" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="227" t="s">
+      <c r="A20" s="233" t="s">
         <v>182</v>
       </c>
-      <c r="B20" s="228"/>
-      <c r="C20" s="228"/>
-      <c r="D20" s="228"/>
-      <c r="E20" s="228"/>
-      <c r="F20" s="228"/>
-      <c r="G20" s="228"/>
-      <c r="H20" s="228"/>
-      <c r="I20" s="229"/>
+      <c r="B20" s="234"/>
+      <c r="C20" s="234"/>
+      <c r="D20" s="234"/>
+      <c r="E20" s="234"/>
+      <c r="F20" s="234"/>
+      <c r="G20" s="234"/>
+      <c r="H20" s="234"/>
+      <c r="I20" s="235"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="210" t="s">
+      <c r="A21" s="216" t="s">
         <v>216</v>
       </c>
-      <c r="B21" s="211"/>
-      <c r="C21" s="211"/>
-      <c r="D21" s="211"/>
-      <c r="E21" s="212"/>
-      <c r="F21" s="213" t="s">
+      <c r="B21" s="217"/>
+      <c r="C21" s="217"/>
+      <c r="D21" s="217"/>
+      <c r="E21" s="218"/>
+      <c r="F21" s="219" t="s">
         <v>218</v>
       </c>
-      <c r="G21" s="214"/>
-      <c r="H21" s="214"/>
-      <c r="I21" s="215"/>
+      <c r="G21" s="220"/>
+      <c r="H21" s="220"/>
+      <c r="I21" s="221"/>
     </row>
     <row ht="13.5" r="22" spans="1:9" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="47" t="s">
@@ -12646,71 +13315,71 @@
   </cols>
   <sheetData>
     <row ht="26.25" r="1" spans="1:11" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="216" t="s">
+      <c r="A1" s="222" t="s">
         <v>213</v>
       </c>
-      <c r="B1" s="217"/>
-      <c r="C1" s="217"/>
-      <c r="D1" s="217"/>
-      <c r="E1" s="217"/>
-      <c r="F1" s="217"/>
-      <c r="G1" s="217"/>
-      <c r="H1" s="217"/>
-      <c r="I1" s="218"/>
+      <c r="B1" s="223"/>
+      <c r="C1" s="223"/>
+      <c r="D1" s="223"/>
+      <c r="E1" s="223"/>
+      <c r="F1" s="223"/>
+      <c r="G1" s="223"/>
+      <c r="H1" s="223"/>
+      <c r="I1" s="224"/>
     </row>
     <row ht="13.5" r="2" spans="1:11" thickBot="1" x14ac:dyDescent="0.25"/>
     <row ht="13.5" r="3" spans="1:11" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="219" t="s">
+      <c r="A3" s="225" t="s">
         <v>201</v>
       </c>
-      <c r="B3" s="220"/>
-      <c r="C3" s="220"/>
-      <c r="D3" s="220"/>
-      <c r="E3" s="220"/>
-      <c r="F3" s="220"/>
-      <c r="G3" s="220"/>
-      <c r="H3" s="220"/>
-      <c r="I3" s="221"/>
+      <c r="B3" s="226"/>
+      <c r="C3" s="226"/>
+      <c r="D3" s="226"/>
+      <c r="E3" s="226"/>
+      <c r="F3" s="226"/>
+      <c r="G3" s="226"/>
+      <c r="H3" s="226"/>
+      <c r="I3" s="227"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="50" t="s">
         <v>202</v>
       </c>
-      <c r="B4" s="222"/>
-      <c r="C4" s="222"/>
-      <c r="D4" s="222"/>
-      <c r="E4" s="222"/>
-      <c r="F4" s="222"/>
-      <c r="G4" s="222"/>
-      <c r="H4" s="222"/>
-      <c r="I4" s="223"/>
+      <c r="B4" s="228"/>
+      <c r="C4" s="228"/>
+      <c r="D4" s="228"/>
+      <c r="E4" s="228"/>
+      <c r="F4" s="228"/>
+      <c r="G4" s="228"/>
+      <c r="H4" s="228"/>
+      <c r="I4" s="229"/>
     </row>
     <row ht="13.5" r="5" spans="1:11" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="51" t="s">
         <v>203</v>
       </c>
-      <c r="B5" s="230"/>
-      <c r="C5" s="231"/>
-      <c r="D5" s="231"/>
-      <c r="E5" s="231"/>
-      <c r="F5" s="231"/>
-      <c r="G5" s="231"/>
-      <c r="H5" s="231"/>
-      <c r="I5" s="232"/>
+      <c r="B5" s="236"/>
+      <c r="C5" s="237"/>
+      <c r="D5" s="237"/>
+      <c r="E5" s="237"/>
+      <c r="F5" s="237"/>
+      <c r="G5" s="237"/>
+      <c r="H5" s="237"/>
+      <c r="I5" s="238"/>
     </row>
     <row ht="13.5" r="6" spans="1:11" thickBot="1" x14ac:dyDescent="0.25"/>
     <row ht="13.5" r="7" spans="1:11" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="227" t="s">
+      <c r="A7" s="233" t="s">
         <v>195</v>
       </c>
-      <c r="B7" s="228"/>
-      <c r="C7" s="228"/>
-      <c r="D7" s="228"/>
-      <c r="E7" s="228"/>
-      <c r="F7" s="228"/>
-      <c r="G7" s="228"/>
-      <c r="H7" s="228"/>
-      <c r="I7" s="229"/>
+      <c r="B7" s="234"/>
+      <c r="C7" s="234"/>
+      <c r="D7" s="234"/>
+      <c r="E7" s="234"/>
+      <c r="F7" s="234"/>
+      <c r="G7" s="234"/>
+      <c r="H7" s="234"/>
+      <c r="I7" s="235"/>
     </row>
     <row ht="13.5" r="8" spans="1:11" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="48" t="s">
@@ -12890,32 +13559,32 @@
     </row>
     <row ht="13.5" r="19" spans="1:22" thickBot="1" x14ac:dyDescent="0.25"/>
     <row ht="13.5" r="20" spans="1:22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="227" t="s">
+      <c r="A20" s="233" t="s">
         <v>182</v>
       </c>
-      <c r="B20" s="228"/>
-      <c r="C20" s="228"/>
-      <c r="D20" s="228"/>
-      <c r="E20" s="228"/>
-      <c r="F20" s="228"/>
-      <c r="G20" s="228"/>
-      <c r="H20" s="228"/>
-      <c r="I20" s="229"/>
+      <c r="B20" s="234"/>
+      <c r="C20" s="234"/>
+      <c r="D20" s="234"/>
+      <c r="E20" s="234"/>
+      <c r="F20" s="234"/>
+      <c r="G20" s="234"/>
+      <c r="H20" s="234"/>
+      <c r="I20" s="235"/>
     </row>
     <row customHeight="1" ht="31.5" r="21" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A21" s="237" t="s">
+      <c r="A21" s="243" t="s">
         <v>278</v>
       </c>
-      <c r="B21" s="211"/>
-      <c r="C21" s="211"/>
-      <c r="D21" s="211"/>
-      <c r="E21" s="212"/>
-      <c r="F21" s="213" t="s">
+      <c r="B21" s="217"/>
+      <c r="C21" s="217"/>
+      <c r="D21" s="217"/>
+      <c r="E21" s="218"/>
+      <c r="F21" s="219" t="s">
         <v>218</v>
       </c>
-      <c r="G21" s="214"/>
-      <c r="H21" s="214"/>
-      <c r="I21" s="215"/>
+      <c r="G21" s="220"/>
+      <c r="H21" s="220"/>
+      <c r="I21" s="221"/>
       <c r="V21" s="56"/>
     </row>
     <row customFormat="1" ht="13.5" r="22" s="37" spans="1:22" thickBot="1" x14ac:dyDescent="0.25">
@@ -13304,32 +13973,32 @@
     </row>
     <row ht="13.5" r="35" spans="1:22" thickBot="1" x14ac:dyDescent="0.25"/>
     <row ht="13.5" r="36" spans="1:22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="227" t="s">
+      <c r="A36" s="233" t="s">
         <v>181</v>
       </c>
-      <c r="B36" s="228"/>
-      <c r="C36" s="228"/>
-      <c r="D36" s="228"/>
-      <c r="E36" s="228"/>
-      <c r="F36" s="228"/>
-      <c r="G36" s="228"/>
-      <c r="H36" s="228"/>
-      <c r="I36" s="229"/>
+      <c r="B36" s="234"/>
+      <c r="C36" s="234"/>
+      <c r="D36" s="234"/>
+      <c r="E36" s="234"/>
+      <c r="F36" s="234"/>
+      <c r="G36" s="234"/>
+      <c r="H36" s="234"/>
+      <c r="I36" s="235"/>
     </row>
     <row customHeight="1" ht="26.25" r="37" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A37" s="233" t="s">
+      <c r="A37" s="239" t="s">
         <v>189</v>
       </c>
-      <c r="B37" s="234"/>
-      <c r="C37" s="234"/>
-      <c r="D37" s="234"/>
-      <c r="E37" s="235"/>
-      <c r="F37" s="236" t="s">
+      <c r="B37" s="240"/>
+      <c r="C37" s="240"/>
+      <c r="D37" s="240"/>
+      <c r="E37" s="241"/>
+      <c r="F37" s="242" t="s">
         <v>218</v>
       </c>
-      <c r="G37" s="214"/>
-      <c r="H37" s="214"/>
-      <c r="I37" s="215"/>
+      <c r="G37" s="220"/>
+      <c r="H37" s="220"/>
+      <c r="I37" s="221"/>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="105" t="s">
@@ -13769,44 +14438,44 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="30" r="1" spans="1:34" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="216" t="s">
+      <c r="A1" s="222" t="s">
         <v>286</v>
       </c>
-      <c r="B1" s="217"/>
-      <c r="C1" s="217"/>
-      <c r="D1" s="217"/>
-      <c r="E1" s="217"/>
-      <c r="F1" s="217"/>
-      <c r="G1" s="217"/>
-      <c r="H1" s="217"/>
-      <c r="I1" s="218"/>
+      <c r="B1" s="223"/>
+      <c r="C1" s="223"/>
+      <c r="D1" s="223"/>
+      <c r="E1" s="223"/>
+      <c r="F1" s="223"/>
+      <c r="G1" s="223"/>
+      <c r="H1" s="223"/>
+      <c r="I1" s="224"/>
     </row>
     <row ht="13.5" r="2" spans="1:34" thickBot="1" x14ac:dyDescent="0.25"/>
     <row ht="13.5" r="3" spans="1:34" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="219" t="s">
+      <c r="A3" s="225" t="s">
         <v>201</v>
       </c>
-      <c r="B3" s="220"/>
-      <c r="C3" s="220"/>
-      <c r="D3" s="220"/>
-      <c r="E3" s="220"/>
-      <c r="F3" s="220"/>
-      <c r="G3" s="220"/>
-      <c r="H3" s="220"/>
-      <c r="I3" s="221"/>
+      <c r="B3" s="226"/>
+      <c r="C3" s="226"/>
+      <c r="D3" s="226"/>
+      <c r="E3" s="226"/>
+      <c r="F3" s="226"/>
+      <c r="G3" s="226"/>
+      <c r="H3" s="226"/>
+      <c r="I3" s="227"/>
     </row>
     <row ht="13.5" r="4" spans="1:34" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="86" t="s">
         <v>202</v>
       </c>
-      <c r="B4" s="240"/>
-      <c r="C4" s="240"/>
-      <c r="D4" s="240"/>
-      <c r="E4" s="240"/>
-      <c r="F4" s="240"/>
-      <c r="G4" s="240"/>
-      <c r="H4" s="240"/>
-      <c r="I4" s="241"/>
+      <c r="B4" s="246"/>
+      <c r="C4" s="246"/>
+      <c r="D4" s="246"/>
+      <c r="E4" s="246"/>
+      <c r="F4" s="246"/>
+      <c r="G4" s="246"/>
+      <c r="H4" s="246"/>
+      <c r="I4" s="247"/>
     </row>
     <row ht="13.5" r="5" spans="1:34" thickBot="1" x14ac:dyDescent="0.25"/>
     <row ht="13.5" r="6" spans="1:34" thickBot="1" x14ac:dyDescent="0.25">
@@ -13832,10 +14501,10 @@
       <c r="R6" s="187"/>
       <c r="S6" s="187"/>
       <c r="T6" s="188"/>
-      <c r="U6" s="242" t="s">
+      <c r="U6" s="248" t="s">
         <v>288</v>
       </c>
-      <c r="V6" s="243"/>
+      <c r="V6" s="249"/>
       <c r="W6" s="81"/>
       <c r="X6" s="81"/>
       <c r="Y6" s="81"/>
@@ -15704,32 +16373,32 @@
       <c r="X57" s="81"/>
     </row>
     <row ht="13.5" r="58" spans="1:34" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="227" t="s">
+      <c r="A58" s="233" t="s">
         <v>182</v>
       </c>
-      <c r="B58" s="228"/>
-      <c r="C58" s="228"/>
-      <c r="D58" s="228"/>
-      <c r="E58" s="228"/>
-      <c r="F58" s="228"/>
-      <c r="G58" s="228"/>
-      <c r="H58" s="228"/>
-      <c r="I58" s="229"/>
+      <c r="B58" s="234"/>
+      <c r="C58" s="234"/>
+      <c r="D58" s="234"/>
+      <c r="E58" s="234"/>
+      <c r="F58" s="234"/>
+      <c r="G58" s="234"/>
+      <c r="H58" s="234"/>
+      <c r="I58" s="235"/>
     </row>
     <row customHeight="1" ht="12.75" outlineLevel="1" r="59" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A59" s="210" t="s">
+      <c r="A59" s="216" t="s">
         <v>189</v>
       </c>
-      <c r="B59" s="211"/>
-      <c r="C59" s="211"/>
-      <c r="D59" s="211"/>
-      <c r="E59" s="239"/>
-      <c r="F59" s="238" t="s">
+      <c r="B59" s="217"/>
+      <c r="C59" s="217"/>
+      <c r="D59" s="217"/>
+      <c r="E59" s="245"/>
+      <c r="F59" s="244" t="s">
         <v>187</v>
       </c>
-      <c r="G59" s="214"/>
-      <c r="H59" s="214"/>
-      <c r="I59" s="215"/>
+      <c r="G59" s="220"/>
+      <c r="H59" s="220"/>
+      <c r="I59" s="221"/>
     </row>
     <row customFormat="1" ht="26.25" outlineLevel="1" r="60" s="37" spans="1:34" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="47" t="s">
@@ -16023,32 +16692,32 @@
     </row>
     <row ht="13.5" r="72" spans="1:9" thickBot="1" x14ac:dyDescent="0.25"/>
     <row ht="13.5" r="73" spans="1:9" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="227" t="s">
+      <c r="A73" s="233" t="s">
         <v>181</v>
       </c>
-      <c r="B73" s="228"/>
-      <c r="C73" s="228"/>
-      <c r="D73" s="228"/>
-      <c r="E73" s="228"/>
-      <c r="F73" s="228"/>
-      <c r="G73" s="228"/>
-      <c r="H73" s="228"/>
-      <c r="I73" s="229"/>
+      <c r="B73" s="234"/>
+      <c r="C73" s="234"/>
+      <c r="D73" s="234"/>
+      <c r="E73" s="234"/>
+      <c r="F73" s="234"/>
+      <c r="G73" s="234"/>
+      <c r="H73" s="234"/>
+      <c r="I73" s="235"/>
     </row>
     <row outlineLevel="1" r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="244" t="s">
+      <c r="A74" s="250" t="s">
         <v>189</v>
       </c>
-      <c r="B74" s="211"/>
-      <c r="C74" s="211"/>
-      <c r="D74" s="211"/>
-      <c r="E74" s="239"/>
-      <c r="F74" s="238" t="s">
+      <c r="B74" s="217"/>
+      <c r="C74" s="217"/>
+      <c r="D74" s="217"/>
+      <c r="E74" s="245"/>
+      <c r="F74" s="244" t="s">
         <v>187</v>
       </c>
-      <c r="G74" s="214"/>
-      <c r="H74" s="214"/>
-      <c r="I74" s="215"/>
+      <c r="G74" s="220"/>
+      <c r="H74" s="220"/>
+      <c r="I74" s="221"/>
     </row>
     <row ht="26.25" outlineLevel="1" r="75" spans="1:9" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="40" t="s">

--- a/Reports/New Base_Report_Iteration_1.xlsx
+++ b/Reports/New Base_Report_Iteration_1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="12" tabRatio="693" windowHeight="7620" windowWidth="24240" xWindow="660" yWindow="5025"/>
+    <workbookView tabRatio="693" windowHeight="7620" windowWidth="24240" xWindow="5715" yWindow="1725"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" r:id="rId1" sheetId="1"/>
@@ -90,60 +90,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Thomas Yuen</author>
-  </authors>
-  <commentList>
-    <comment authorId="0" ref="C1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>required on Class-List validation</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="0" ref="E1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>required on Class-List validation</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="0" ref="F1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>required on Class-List validation</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="640">
   <si>
     <t>Regression thread</t>
   </si>
@@ -1956,6 +1904,12 @@
     <t>Eqpt_Identifier</t>
   </si>
   <si>
+    <t>Register_Address/File</t>
+  </si>
+  <si>
+    <t>Bit_offset</t>
+  </si>
+  <si>
     <t>22-06-2018</t>
   </si>
   <si>
@@ -1995,21 +1949,6 @@
     <t>v2_State</t>
   </si>
   <si>
-    <t>Device_Address</t>
-  </si>
-  <si>
-    <t>Function_Code</t>
-  </si>
-  <si>
-    <t>Register_Address/File</t>
-  </si>
-  <si>
-    <t>Bit_offset</t>
-  </si>
-  <si>
-    <t>DC_Addr_Size</t>
-  </si>
-  <si>
     <t>13</t>
   </si>
   <si>
@@ -2022,6 +1961,9 @@
     <t>1</t>
   </si>
   <si>
+    <t>Link to Raw Result</t>
+  </si>
+  <si>
     <t>CUD</t>
   </si>
   <si>
@@ -2110,6 +2052,18 @@
   </si>
   <si>
     <t>Alarm Severity</t>
+  </si>
+  <si>
+    <t>dev_test3</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>11-06-2018</t>
+  </si>
+  <si>
+    <t>New Base</t>
   </si>
 </sst>
 </file>
@@ -2395,14 +2349,13 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="63">
+  <fills count="62">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2764,13 +2717,9 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="17"/>
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -3512,7 +3461,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="274">
+  <cellXfs count="264">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" applyFont="1" borderId="0" fillId="24" fontId="25" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="10" fillId="28" fontId="27" numFmtId="0" xfId="0">
@@ -4053,6 +4002,12 @@
     <xf applyAlignment="1" applyBorder="1" borderId="10" fillId="52" fontId="40" numFmtId="0" xfId="43">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="61" fontId="43" numFmtId="0" xfId="47" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="10" fillId="46" fontId="20" numFmtId="0" xfId="48">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf applyAlignment="1" applyBorder="1" borderId="46" fillId="50" fontId="20" numFmtId="0" xfId="46">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4173,6 +4128,21 @@
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="26" fillId="33" fontId="18" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="38" fillId="34" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="28" fillId="34" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="29" fillId="34" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="38" fillId="35" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="17" fillId="34" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="23" fillId="32" fontId="19" numFmtId="0" xfId="34">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4182,42 +4152,27 @@
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="16" fillId="32" fontId="18" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="38" fillId="34" fontId="18" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="24" fillId="44" fontId="18" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="28" fillId="34" fontId="18" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="26" fillId="44" fontId="18" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="29" fillId="34" fontId="18" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="30" fillId="34" fontId="18" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="38" fillId="35" fontId="18" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="17" fillId="34" fontId="18" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="31" fillId="34" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="27" fillId="35" fontId="18" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="31" fillId="34" fontId="18" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="25" fillId="32" fontId="19" numFmtId="0" xfId="34">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="26" fillId="32" fontId="19" numFmtId="0" xfId="34">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="24" fillId="44" fontId="18" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="26" fillId="44" fontId="18" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="30" fillId="34" fontId="18" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="0" fontId="39" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -4230,20 +4185,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -4317,7 +4258,95 @@
     <cellStyle builtinId="25" customBuiltin="1" name="Total" xfId="41"/>
     <cellStyle name="Warning Text" xfId="42"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="41"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="22"/>
+          <bgColor indexed="31"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -4492,6 +4521,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4610,6 +4640,24 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4628,6 +4676,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6076,8 +6125,8 @@
   </sheetPr>
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6131,13 +6180,17 @@
         <f>Language!$D$6</f>
         <v>STD ID</v>
       </c>
-      <c r="E3" s="175"/>
+      <c r="E3" s="175" t="s">
+        <v>636</v>
+      </c>
       <c r="F3" s="149"/>
       <c r="G3" s="157" t="str">
         <f>Language!$D$24</f>
         <v>Written by</v>
       </c>
-      <c r="H3" s="185"/>
+      <c r="H3" s="185" t="s">
+        <v>637</v>
+      </c>
       <c r="I3" s="138"/>
       <c r="J3" s="139"/>
     </row>
@@ -6155,7 +6208,9 @@
         <f>Language!$D$26</f>
         <v>Writing status</v>
       </c>
-      <c r="H4" s="153"/>
+      <c r="H4" s="153" t="s">
+        <v>31</v>
+      </c>
       <c r="I4" s="138"/>
       <c r="J4" s="139"/>
     </row>
@@ -6176,7 +6231,9 @@
         <f>Language!$D$27</f>
         <v>Writing date</v>
       </c>
-      <c r="H5" s="182"/>
+      <c r="H5" s="185" t="s">
+        <v>638</v>
+      </c>
       <c r="I5" s="138"/>
       <c r="J5" s="139"/>
     </row>
@@ -6339,11 +6396,11 @@
       <c r="A15" s="138"/>
       <c r="B15" s="141"/>
       <c r="C15" s="138"/>
-      <c r="D15" s="196"/>
-      <c r="E15" s="197"/>
+      <c r="D15" s="198"/>
+      <c r="E15" s="199"/>
       <c r="F15" s="149"/>
-      <c r="G15" s="196"/>
-      <c r="H15" s="197"/>
+      <c r="G15" s="198"/>
+      <c r="H15" s="199"/>
       <c r="I15" s="138"/>
       <c r="J15" s="139"/>
     </row>
@@ -6421,7 +6478,7 @@
         <v>Running date</v>
       </c>
       <c r="H19" s="178" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="I19" s="143"/>
       <c r="J19" s="139"/>
@@ -6437,7 +6494,9 @@
         <f>Language!$D$36</f>
         <v>IO schedule version</v>
       </c>
-      <c r="E20" s="184"/>
+      <c r="E20" t="s" s="184">
+        <v>639</v>
+      </c>
       <c r="F20" s="149"/>
       <c r="G20" s="149"/>
       <c r="H20" s="149"/>
@@ -6493,7 +6552,9 @@
         <f>Language!$D$39</f>
         <v>Total steps</v>
       </c>
-      <c r="E23" s="155"/>
+      <c r="E23" t="n" s="184">
+        <v>11.0</v>
+      </c>
       <c r="F23" s="149"/>
       <c r="G23" s="150" t="str">
         <f>Language!$D$46</f>
@@ -6546,10 +6607,12 @@
         <f>Language!$D$50</f>
         <v>Total Not Tested</v>
       </c>
-      <c r="E26" s="159"/>
+      <c r="E26" s="159">
+        <v>0</v>
+      </c>
       <c r="F26" s="149"/>
-      <c r="G26" s="198"/>
-      <c r="H26" s="199"/>
+      <c r="G26" s="200"/>
+      <c r="H26" s="201"/>
       <c r="I26" s="138"/>
       <c r="J26" s="139"/>
     </row>
@@ -6561,10 +6624,12 @@
         <f>Language!$D$51</f>
         <v>Total OK</v>
       </c>
-      <c r="E27" s="155"/>
+      <c r="E27" t="n" s="155">
+        <v>10.0</v>
+      </c>
       <c r="F27" s="149"/>
-      <c r="G27" s="200"/>
-      <c r="H27" s="201"/>
+      <c r="G27" s="202"/>
+      <c r="H27" s="203"/>
       <c r="I27" s="143"/>
       <c r="J27" s="139"/>
     </row>
@@ -6575,10 +6640,12 @@
         <f>Language!$D$52</f>
         <v>Total OKWC</v>
       </c>
-      <c r="E28" s="155"/>
+      <c r="E28" s="155">
+        <v>0</v>
+      </c>
       <c r="F28" s="149"/>
-      <c r="G28" s="202"/>
-      <c r="H28" s="203"/>
+      <c r="G28" s="204"/>
+      <c r="H28" s="205"/>
       <c r="I28" s="143"/>
       <c r="J28" s="139"/>
     </row>
@@ -6589,7 +6656,9 @@
         <f>Language!$D$53</f>
         <v>Total NOK</v>
       </c>
-      <c r="E29" s="155"/>
+      <c r="E29" t="n" s="155">
+        <v>0.0</v>
+      </c>
       <c r="F29" s="149"/>
       <c r="G29" s="149"/>
       <c r="H29" s="149"/>
@@ -6604,7 +6673,9 @@
         <f>Language!$D$54</f>
         <v>Total Not Testable</v>
       </c>
-      <c r="E30" s="155"/>
+      <c r="E30" s="155">
+        <v>0</v>
+      </c>
       <c r="F30" s="149"/>
       <c r="G30" s="160" t="str">
         <f>Language!$D$118</f>
@@ -6622,10 +6693,12 @@
         <f>Language!$D$55</f>
         <v>Total Out Of Scope</v>
       </c>
-      <c r="E31" s="155"/>
+      <c r="E31" t="n" s="155">
+        <v>1.0</v>
+      </c>
       <c r="F31" s="149"/>
-      <c r="G31" s="204"/>
-      <c r="H31" s="205"/>
+      <c r="G31" s="206"/>
+      <c r="H31" s="207"/>
       <c r="I31" s="143"/>
       <c r="J31" s="139"/>
     </row>
@@ -6637,10 +6710,12 @@
         <f>Language!$D$56</f>
         <v>Test case result</v>
       </c>
-      <c r="E32" s="156"/>
+      <c r="E32" t="n" s="155">
+        <v>11.0</v>
+      </c>
       <c r="F32" s="149"/>
-      <c r="G32" s="206"/>
-      <c r="H32" s="207"/>
+      <c r="G32" s="208"/>
+      <c r="H32" s="209"/>
       <c r="I32" s="143"/>
       <c r="J32" s="139"/>
     </row>
@@ -6778,19 +6853,19 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="E32">
-    <cfRule dxfId="4" operator="equal" priority="1" type="cellIs">
+    <cfRule dxfId="11" operator="equal" priority="1" type="cellIs">
       <formula>"not testable"</formula>
     </cfRule>
-    <cfRule dxfId="3" operator="equal" priority="2" type="cellIs">
+    <cfRule dxfId="10" operator="equal" priority="2" type="cellIs">
       <formula>"out of scope"</formula>
     </cfRule>
-    <cfRule dxfId="2" operator="equal" priority="3" type="cellIs">
+    <cfRule dxfId="9" operator="equal" priority="3" type="cellIs">
       <formula>"failed"</formula>
     </cfRule>
-    <cfRule dxfId="1" operator="equal" priority="4" type="cellIs">
+    <cfRule dxfId="8" operator="equal" priority="4" type="cellIs">
       <formula>"passed with comment"</formula>
     </cfRule>
-    <cfRule dxfId="0" operator="equal" priority="5" type="cellIs">
+    <cfRule dxfId="7" operator="equal" priority="5" type="cellIs">
       <formula>"passed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6857,7 +6932,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control name="Button 253" r:id="rId5" shapeId="4349">
+            <control name="CommandButton1" r:id="rId5" shapeId="4349">
               <controlPr autoFill="0" autoLine="0" autoPict="0" defaultSize="0" macro="[0]!ShowTester">
                 <anchor>
                   <from>
@@ -6879,7 +6954,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control name="Button 255" r:id="rId6" shapeId="4351">
+            <control name="CommandButton1" r:id="rId6" shapeId="4351">
               <controlPr autoFill="0" autoLine="0" autoPict="0" defaultSize="0" macro="[0]!ShowIVVQEngineer">
                 <anchor>
                   <from>
@@ -6901,7 +6976,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control name="Button 256" r:id="rId7" shapeId="4352">
+            <control name="CommandButton1" r:id="rId7" shapeId="4352">
               <controlPr autoFill="0" autoLine="0" autoPict="0" defaultSize="0" macro="[0]!ShowAumation">
                 <anchor>
                   <from>
@@ -6923,7 +6998,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control name="Button 257" r:id="rId8" shapeId="4353">
+            <control name="CommandButton1" r:id="rId8" shapeId="4353">
               <controlPr autoFill="0" autoLine="0" autoPict="0" defaultSize="0" macro="[0]!ShowImport">
                 <anchor>
                   <from>
@@ -6945,7 +7020,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control name="Button 258" r:id="rId9" shapeId="4354">
+            <control name="CommandButton1" r:id="rId9" shapeId="4354">
               <controlPr autoFill="0" autoLine="0" autoPict="0" defaultSize="0" macro="[0]!ShowExport">
                 <anchor>
                   <from>
@@ -6967,7 +7042,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control name="Button 259" r:id="rId10" shapeId="4355">
+            <control name="CommandButton1" r:id="rId10" shapeId="4355">
               <controlPr autoFill="0" autoLine="0" autoPict="0" defaultSize="0" macro="[0]!ShowViews">
                 <anchor>
                   <from>
@@ -6989,7 +7064,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control name="Button 260" r:id="rId11" shapeId="4356">
+            <control name="CommandButton1" r:id="rId11" shapeId="4356">
               <controlPr autoFill="0" autoLine="0" autoPict="0" defaultSize="0" macro="[0]!ShowHowTo">
                 <anchor>
                   <from>
@@ -7011,7 +7086,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control name="Button 262" r:id="rId12" shapeId="4358">
+            <control name="CommandButton1" r:id="rId12" shapeId="4358">
               <controlPr autoFill="0" autoLine="0" autoPict="0" defaultSize="0" macro="[0]!ShowCustom">
                 <anchor>
                   <from>
@@ -7632,14 +7707,14 @@
   </cols>
   <sheetData>
     <row ht="15" r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C1" s="251" t="s">
+      <c r="C1" s="253" t="s">
         <v>512</v>
       </c>
-      <c r="D1" s="251"/>
-      <c r="E1" s="251"/>
-      <c r="F1" s="251"/>
-      <c r="G1" s="251"/>
-      <c r="H1" s="251"/>
+      <c r="D1" s="253"/>
+      <c r="E1" s="253"/>
+      <c r="F1" s="253"/>
+      <c r="G1" s="253"/>
+      <c r="H1" s="253"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C2" s="123" t="s">
@@ -7662,7 +7737,7 @@
       </c>
     </row>
     <row customHeight="1" ht="14.25" r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="252" t="s">
+      <c r="A3" s="254" t="s">
         <v>513</v>
       </c>
       <c r="B3" s="129" t="s">
@@ -7688,7 +7763,7 @@
       </c>
     </row>
     <row customHeight="1" ht="14.25" r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="252"/>
+      <c r="A4" s="254"/>
       <c r="B4" s="132" t="s">
         <v>30</v>
       </c>
@@ -7712,27 +7787,27 @@
       </c>
     </row>
     <row customHeight="1" ht="14.25" r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="252"/>
+      <c r="A5" s="254"/>
       <c r="B5" s="129" t="s">
         <v>515</v>
       </c>
       <c r="C5" s="130" t="s">
         <v>514</v>
       </c>
-      <c r="D5" s="253" t="s">
+      <c r="D5" s="255" t="s">
         <v>516</v>
       </c>
-      <c r="E5" s="253"/>
+      <c r="E5" s="255"/>
       <c r="F5" s="130">
         <v>0</v>
       </c>
-      <c r="G5" s="253" t="s">
+      <c r="G5" s="255" t="s">
         <v>516</v>
       </c>
-      <c r="H5" s="253"/>
+      <c r="H5" s="255"/>
     </row>
     <row customHeight="1" ht="14.25" r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="252"/>
+      <c r="A6" s="254"/>
       <c r="B6" s="133" t="s">
         <v>517</v>
       </c>
@@ -7756,7 +7831,7 @@
       </c>
     </row>
     <row customHeight="1" ht="14.25" r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="252"/>
+      <c r="A7" s="254"/>
       <c r="B7" s="134" t="s">
         <v>284</v>
       </c>
@@ -7780,7 +7855,7 @@
       </c>
     </row>
     <row customHeight="1" ht="14.25" r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="252"/>
+      <c r="A8" s="254"/>
       <c r="B8" s="135" t="s">
         <v>160</v>
       </c>
@@ -7804,7 +7879,7 @@
       </c>
     </row>
     <row customHeight="1" ht="14.25" r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="252"/>
+      <c r="A9" s="254"/>
       <c r="B9" s="136" t="s">
         <v>22</v>
       </c>
@@ -7864,16 +7939,16 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
-  <dimension ref="A1:W12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row customFormat="1" ht="45" r="1" s="122" spans="1:19" x14ac:dyDescent="0.2">
+    <row customFormat="1" ht="51" r="1" s="122" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="193" t="s">
         <v>583</v>
       </c>
@@ -7889,477 +7964,640 @@
       <c r="E1" s="191" t="s">
         <v>579</v>
       </c>
-      <c r="F1" t="s" s="255">
-        <v>593</v>
-      </c>
-      <c r="G1" t="s" s="255">
-        <v>594</v>
-      </c>
-      <c r="H1" t="s" s="255">
+      <c r="F1" t="s" s="193">
         <v>595</v>
       </c>
-      <c r="I1" t="s" s="255">
+      <c r="G1" t="s" s="193">
         <v>596</v>
       </c>
-      <c r="J1" t="s" s="255">
+      <c r="H1" t="s" s="193">
         <v>597</v>
       </c>
-      <c r="K1" t="s" s="255">
+      <c r="I1" t="s" s="193">
         <v>598</v>
       </c>
-      <c r="L1" t="s" s="255">
+      <c r="J1" t="s" s="193">
         <v>599</v>
       </c>
-      <c r="M1" t="s" s="255">
+      <c r="K1" t="s" s="193">
         <v>600</v>
       </c>
-      <c r="N1" t="s" s="255">
-        <v>601</v>
-      </c>
-      <c r="O1" t="s" s="255">
-        <v>602</v>
-      </c>
-      <c r="P1" t="s" s="255">
-        <v>603</v>
-      </c>
-      <c r="Q1" t="s" s="255">
+      <c r="L1" t="s" s="193">
+        <v>586</v>
+      </c>
+      <c r="M1" t="s" s="193">
+        <v>587</v>
+      </c>
+      <c r="N1" t="s" s="194">
         <v>354</v>
       </c>
-      <c r="R1" t="s" s="255">
+      <c r="O1" t="s" s="194">
         <v>356</v>
       </c>
-      <c r="S1" t="s" s="255">
+      <c r="P1" t="s" s="194">
         <v>20</v>
       </c>
-      <c r="T1" t="s" s="255">
+      <c r="Q1" t="s" s="194">
         <v>264</v>
       </c>
-      <c r="U1" t="s" s="255">
+      <c r="R1" t="s" s="194">
         <v>162</v>
       </c>
-      <c r="V1" t="s" s="255">
+      <c r="S1" t="s" s="194">
         <v>19</v>
       </c>
     </row>
-    <row r="2">
-      <c r="Q2" t="s" s="256">
-        <v>30</v>
-      </c>
-    </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B3" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="C3" t="s">
+        <v>609</v>
+      </c>
+      <c r="D3" t="s">
         <v>610</v>
       </c>
-      <c r="D3" t="s">
-        <v>612</v>
+      <c r="E3" t="s">
+        <v>603</v>
       </c>
       <c r="F3" t="s">
-        <v>617</v>
-      </c>
-      <c r="G3" t="s">
-        <v>618</v>
+        <v>615</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0</v>
       </c>
       <c r="H3" t="s">
         <v>27</v>
       </c>
       <c r="I3" t="s">
+        <v>611</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K3" t="s">
         <v>613</v>
       </c>
-      <c r="J3" t="s">
-        <v>614</v>
-      </c>
-      <c r="K3" t="s">
-        <v>615</v>
-      </c>
-      <c r="N3" t="s">
-        <v>604</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="L3" t="s">
+        <v>601</v>
+      </c>
+      <c r="M3" t="s">
+        <v>602</v>
+      </c>
+      <c r="N3" t="s" s="196">
+        <v>22</v>
+      </c>
+      <c r="O3" s="197"/>
+      <c r="P3" s="197" t="s">
         <v>605</v>
       </c>
-      <c r="Q3" t="s" s="257">
-        <v>22</v>
+      <c r="Q3" s="197"/>
+      <c r="R3" t="s" s="197">
+        <v>588</v>
+      </c>
+      <c r="S3" t="s" s="197">
+        <v>577</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B4" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="C4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D4" t="s">
-        <v>620</v>
+        <v>618</v>
+      </c>
+      <c r="E4" t="s">
+        <v>603</v>
       </c>
       <c r="F4" t="s">
-        <v>617</v>
-      </c>
-      <c r="G4" t="s">
-        <v>618</v>
+        <v>615</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0</v>
       </c>
       <c r="H4" t="s">
         <v>27</v>
       </c>
       <c r="I4" t="s">
+        <v>611</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K4" t="s">
         <v>613</v>
       </c>
-      <c r="J4" t="s">
-        <v>614</v>
-      </c>
-      <c r="K4" t="s">
-        <v>615</v>
-      </c>
-      <c r="N4" t="s">
-        <v>604</v>
-      </c>
-      <c r="O4" t="s">
-        <v>619</v>
-      </c>
-      <c r="Q4" t="s" s="258">
+      <c r="L4" t="s">
+        <v>601</v>
+      </c>
+      <c r="M4" t="s">
+        <v>617</v>
+      </c>
+      <c r="N4" t="s" s="196">
         <v>22</v>
+      </c>
+      <c r="O4" s="197"/>
+      <c r="P4" s="197" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q4" s="197"/>
+      <c r="R4" t="s" s="197">
+        <v>588</v>
+      </c>
+      <c r="S4" t="s" s="197">
+        <v>577</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B5" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="C5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D5" t="s">
-        <v>622</v>
+        <v>620</v>
+      </c>
+      <c r="E5" t="s">
+        <v>603</v>
       </c>
       <c r="F5" t="s">
-        <v>617</v>
-      </c>
-      <c r="G5" t="s">
-        <v>618</v>
+        <v>615</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0</v>
       </c>
       <c r="H5" t="s">
         <v>27</v>
       </c>
       <c r="I5" t="s">
+        <v>611</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K5" t="s">
         <v>613</v>
       </c>
-      <c r="J5" t="s">
-        <v>623</v>
-      </c>
-      <c r="K5" t="s">
-        <v>615</v>
-      </c>
-      <c r="N5" t="s">
-        <v>604</v>
-      </c>
-      <c r="O5" t="s">
-        <v>621</v>
-      </c>
-      <c r="Q5" t="s" s="259">
+      <c r="L5" t="s">
+        <v>601</v>
+      </c>
+      <c r="M5" t="s">
+        <v>619</v>
+      </c>
+      <c r="N5" t="s" s="196">
         <v>22</v>
+      </c>
+      <c r="O5" s="197"/>
+      <c r="P5" s="197" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q5" s="197"/>
+      <c r="R5" t="s" s="197">
+        <v>588</v>
+      </c>
+      <c r="S5" t="s" s="197">
+        <v>577</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B6" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="C6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D6" t="s">
-        <v>625</v>
+        <v>623</v>
+      </c>
+      <c r="E6" t="s">
+        <v>603</v>
       </c>
       <c r="F6" t="s">
-        <v>617</v>
-      </c>
-      <c r="G6" t="s">
-        <v>618</v>
+        <v>615</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0</v>
       </c>
       <c r="H6" t="s">
         <v>27</v>
       </c>
       <c r="I6" t="s">
+        <v>611</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K6" t="s">
         <v>613</v>
       </c>
-      <c r="J6" t="s">
-        <v>623</v>
-      </c>
-      <c r="K6" t="s">
-        <v>615</v>
-      </c>
-      <c r="N6" t="s">
-        <v>604</v>
-      </c>
-      <c r="O6" t="s">
-        <v>624</v>
-      </c>
-      <c r="Q6" t="s" s="260">
+      <c r="L6" t="s">
+        <v>601</v>
+      </c>
+      <c r="M6" t="s">
+        <v>622</v>
+      </c>
+      <c r="N6" t="s" s="196">
         <v>22</v>
+      </c>
+      <c r="O6" s="197"/>
+      <c r="P6" s="197" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q6" s="197"/>
+      <c r="R6" t="s" s="197">
+        <v>588</v>
+      </c>
+      <c r="S6" t="s" s="197">
+        <v>577</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B7" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="C7" t="s">
-        <v>627</v>
+        <v>609</v>
       </c>
       <c r="D7" t="s">
-        <v>612</v>
+        <v>610</v>
+      </c>
+      <c r="E7" t="s">
+        <v>603</v>
       </c>
       <c r="F7" t="s">
-        <v>617</v>
-      </c>
-      <c r="G7" t="s">
-        <v>618</v>
+        <v>615</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0</v>
       </c>
       <c r="H7" t="s">
         <v>27</v>
       </c>
       <c r="I7" t="s">
+        <v>611</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K7" t="s">
         <v>613</v>
       </c>
-      <c r="J7" t="s">
-        <v>614</v>
-      </c>
-      <c r="K7" t="s">
-        <v>615</v>
-      </c>
-      <c r="N7" t="s">
-        <v>626</v>
-      </c>
-      <c r="O7" t="s">
+      <c r="L7" t="s">
+        <v>624</v>
+      </c>
+      <c r="M7" t="s">
+        <v>602</v>
+      </c>
+      <c r="N7" t="s" s="196">
+        <v>22</v>
+      </c>
+      <c r="O7" s="197"/>
+      <c r="P7" s="197" t="s">
         <v>605</v>
       </c>
-      <c r="Q7" t="s" s="261">
-        <v>22</v>
+      <c r="Q7" s="197"/>
+      <c r="R7" t="s" s="197">
+        <v>588</v>
+      </c>
+      <c r="S7" t="s" s="197">
+        <v>577</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B8" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="C8" t="s">
-        <v>627</v>
+        <v>609</v>
       </c>
       <c r="D8" t="s">
-        <v>620</v>
+        <v>618</v>
+      </c>
+      <c r="E8" t="s">
+        <v>603</v>
       </c>
       <c r="F8" t="s">
-        <v>617</v>
-      </c>
-      <c r="G8" t="s">
-        <v>618</v>
+        <v>615</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0</v>
       </c>
       <c r="H8" t="s">
         <v>27</v>
       </c>
       <c r="I8" t="s">
+        <v>611</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K8" t="s">
         <v>613</v>
       </c>
-      <c r="J8" t="s">
-        <v>614</v>
-      </c>
-      <c r="K8" t="s">
-        <v>615</v>
-      </c>
-      <c r="N8" t="s">
-        <v>626</v>
-      </c>
-      <c r="O8" t="s">
-        <v>619</v>
-      </c>
-      <c r="Q8" t="s" s="262">
+      <c r="L8" t="s">
+        <v>624</v>
+      </c>
+      <c r="M8" t="s">
+        <v>617</v>
+      </c>
+      <c r="N8" t="s" s="196">
         <v>22</v>
+      </c>
+      <c r="O8" s="197"/>
+      <c r="P8" s="197" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q8" s="197"/>
+      <c r="R8" t="s" s="197">
+        <v>588</v>
+      </c>
+      <c r="S8" t="s" s="197">
+        <v>577</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B9" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="C9" t="s">
-        <v>627</v>
+        <v>609</v>
       </c>
       <c r="D9" t="s">
-        <v>622</v>
+        <v>620</v>
+      </c>
+      <c r="E9" t="s">
+        <v>603</v>
       </c>
       <c r="F9" t="s">
-        <v>617</v>
-      </c>
-      <c r="G9" t="s">
-        <v>618</v>
+        <v>615</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0</v>
       </c>
       <c r="H9" t="s">
         <v>27</v>
       </c>
       <c r="I9" t="s">
+        <v>611</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K9" t="s">
         <v>613</v>
       </c>
-      <c r="J9" t="s">
-        <v>623</v>
-      </c>
-      <c r="K9" t="s">
-        <v>615</v>
-      </c>
-      <c r="N9" t="s">
-        <v>626</v>
-      </c>
-      <c r="O9" t="s">
-        <v>621</v>
-      </c>
-      <c r="Q9" t="s" s="263">
+      <c r="L9" t="s">
+        <v>624</v>
+      </c>
+      <c r="M9" t="s">
+        <v>619</v>
+      </c>
+      <c r="N9" t="s" s="196">
         <v>22</v>
+      </c>
+      <c r="O9" s="197"/>
+      <c r="P9" s="197" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q9" s="197"/>
+      <c r="R9" t="s" s="197">
+        <v>588</v>
+      </c>
+      <c r="S9" t="s" s="197">
+        <v>577</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B10" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="C10" t="s">
-        <v>627</v>
+        <v>609</v>
       </c>
       <c r="D10" t="s">
-        <v>625</v>
+        <v>623</v>
+      </c>
+      <c r="E10" t="s">
+        <v>603</v>
       </c>
       <c r="F10" t="s">
-        <v>617</v>
-      </c>
-      <c r="G10" t="s">
-        <v>618</v>
+        <v>615</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0</v>
       </c>
       <c r="H10" t="s">
         <v>27</v>
       </c>
       <c r="I10" t="s">
+        <v>611</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K10" t="s">
         <v>613</v>
       </c>
-      <c r="J10" t="s">
-        <v>623</v>
-      </c>
-      <c r="K10" t="s">
-        <v>615</v>
-      </c>
-      <c r="N10" t="s">
-        <v>626</v>
-      </c>
-      <c r="O10" t="s">
+      <c r="L10" t="s">
         <v>624</v>
       </c>
-      <c r="Q10" t="s" s="264">
+      <c r="M10" t="s">
+        <v>622</v>
+      </c>
+      <c r="N10" t="s" s="196">
         <v>22</v>
+      </c>
+      <c r="O10" s="197"/>
+      <c r="P10" s="197" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q10" s="197"/>
+      <c r="R10" t="s" s="197">
+        <v>588</v>
+      </c>
+      <c r="S10" t="s" s="197">
+        <v>577</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B11" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="C11" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="D11" t="s">
-        <v>612</v>
+        <v>610</v>
+      </c>
+      <c r="E11" t="s">
+        <v>603</v>
       </c>
       <c r="F11" t="s">
-        <v>617</v>
-      </c>
-      <c r="G11" t="s">
-        <v>618</v>
+        <v>615</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0</v>
       </c>
       <c r="H11" t="s">
         <v>27</v>
       </c>
       <c r="I11" t="s">
+        <v>611</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K11" t="s">
         <v>613</v>
       </c>
-      <c r="J11" t="s">
-        <v>614</v>
-      </c>
-      <c r="K11" t="s">
-        <v>615</v>
-      </c>
-      <c r="N11" t="s">
-        <v>628</v>
-      </c>
-      <c r="O11" t="s">
+      <c r="L11" t="s">
+        <v>626</v>
+      </c>
+      <c r="M11" t="s">
+        <v>602</v>
+      </c>
+      <c r="N11" t="s" s="196">
+        <v>22</v>
+      </c>
+      <c r="O11" s="197"/>
+      <c r="P11" s="197" t="s">
         <v>605</v>
       </c>
-      <c r="Q11" t="s" s="265">
-        <v>22</v>
+      <c r="Q11" s="197"/>
+      <c r="R11" t="s" s="197">
+        <v>588</v>
+      </c>
+      <c r="S11" t="s" s="197">
+        <v>577</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B12" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="C12" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="D12" t="s">
-        <v>620</v>
+        <v>618</v>
+      </c>
+      <c r="E12" t="s">
+        <v>603</v>
       </c>
       <c r="F12" t="s">
-        <v>617</v>
-      </c>
-      <c r="G12" t="s">
-        <v>618</v>
+        <v>615</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0</v>
       </c>
       <c r="H12" t="s">
         <v>27</v>
       </c>
       <c r="I12" t="s">
+        <v>611</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K12" t="s">
         <v>613</v>
       </c>
-      <c r="J12" t="s">
-        <v>614</v>
-      </c>
-      <c r="K12" t="s">
-        <v>615</v>
-      </c>
-      <c r="N12" t="s">
-        <v>628</v>
-      </c>
-      <c r="O12" t="s">
-        <v>619</v>
-      </c>
-      <c r="Q12" t="s" s="266">
+      <c r="L12" t="s">
+        <v>626</v>
+      </c>
+      <c r="M12" t="s">
+        <v>617</v>
+      </c>
+      <c r="N12" t="s" s="196">
         <v>22</v>
       </c>
+      <c r="O12" s="197"/>
+      <c r="P12" s="197" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q12" s="197"/>
+      <c r="R12" t="s" s="197">
+        <v>588</v>
+      </c>
+      <c r="S12" t="s" s="197">
+        <v>577</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="K2">
+    <cfRule dxfId="6" operator="equal" priority="1" stopIfTrue="1" type="cellIs">
+      <formula>"OS"</formula>
+    </cfRule>
+    <cfRule dxfId="5" operator="equal" priority="2" stopIfTrue="1" type="cellIs">
+      <formula>"NT"</formula>
+    </cfRule>
+    <cfRule dxfId="4" operator="equal" priority="3" stopIfTrue="1" type="cellIs">
+      <formula>"OKWC"</formula>
+    </cfRule>
+    <cfRule dxfId="3" operator="equal" priority="4" stopIfTrue="1" type="cellIs">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="5" stopIfTrue="1" type="cellIs">
+      <formula>"NOK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2">
+    <cfRule dxfId="1" priority="6" stopIfTrue="1" type="expression">
+      <formula>$B2="X"</formula>
+    </cfRule>
+    <cfRule dxfId="0" priority="7" stopIfTrue="1" type="expression">
+      <formula>NOT(ISERROR(SEARCH("P",$B2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink location="'Raw Result'!3:3" ref="P3"/>
+    <hyperlink location="'Raw Result'!6:6" ref="P4"/>
+    <hyperlink location="'Raw Result'!9:9" ref="P5"/>
+    <hyperlink location="'Raw Result'!12:12" ref="P6"/>
+    <hyperlink location="'Raw Result'!15:15" ref="P7"/>
+    <hyperlink location="'Raw Result'!18:18" ref="P8"/>
+    <hyperlink location="'Raw Result'!21:21" ref="P9"/>
+    <hyperlink location="'Raw Result'!24:24" ref="P10"/>
+    <hyperlink location="'Raw Result'!27:27" ref="P11"/>
+    <hyperlink location="'Raw Result'!30:30" ref="P12"/>
+  </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8384,16 +8622,16 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B3" s="208" t="s">
+      <c r="B3" s="210" t="s">
         <v>173</v>
       </c>
-      <c r="C3" s="208"/>
-      <c r="D3" s="208"/>
-      <c r="E3" s="208"/>
-      <c r="F3" s="208"/>
-      <c r="G3" s="208"/>
-      <c r="H3" s="208"/>
-      <c r="I3" s="208"/>
+      <c r="C3" s="210"/>
+      <c r="D3" s="210"/>
+      <c r="E3" s="210"/>
+      <c r="F3" s="210"/>
+      <c r="G3" s="210"/>
+      <c r="H3" s="210"/>
+      <c r="I3" s="210"/>
     </row>
     <row ht="15" r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
@@ -8693,88 +8931,88 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="254">
-        <v>587</v>
-      </c>
-      <c r="B1" t="s" s="254">
-        <v>588</v>
-      </c>
-      <c r="C1" t="s" s="254">
+      <c r="A1" t="s" s="256">
         <v>589</v>
       </c>
-      <c r="D1" t="s" s="254">
+      <c r="B1" t="s" s="256">
         <v>590</v>
       </c>
-      <c r="E1" t="s" s="254">
+      <c r="C1" t="s" s="256">
         <v>591</v>
       </c>
-      <c r="F1" t="s" s="254">
+      <c r="D1" t="s" s="256">
         <v>592</v>
       </c>
-      <c r="G1" t="s" s="267">
+      <c r="E1" t="s" s="256">
+        <v>593</v>
+      </c>
+      <c r="F1" t="s" s="256">
+        <v>594</v>
+      </c>
+      <c r="G1" t="s" s="257">
         <v>583</v>
       </c>
-      <c r="I1" t="s" s="268">
+      <c r="I1" t="s" s="258">
+        <v>630</v>
+      </c>
+      <c r="K1" t="s" s="259">
+        <v>631</v>
+      </c>
+      <c r="M1" t="s" s="260">
         <v>632</v>
       </c>
-      <c r="K1" t="s" s="269">
+      <c r="O1" t="s" s="261">
         <v>633</v>
       </c>
-      <c r="M1" t="s" s="270">
+      <c r="Q1" t="s" s="262">
         <v>634</v>
       </c>
-      <c r="O1" t="s" s="271">
+      <c r="S1" t="s" s="263">
         <v>635</v>
-      </c>
-      <c r="Q1" t="s" s="272">
-        <v>636</v>
-      </c>
-      <c r="S1" t="s" s="273">
-        <v>637</v>
       </c>
     </row>
     <row r="2">
       <c r="G2" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="H2" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="I2" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="J2" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="K2" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="L2" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="M2" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="N2" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="O2" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="P2" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="Q2" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="R2" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="S2" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="T2" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="3">
@@ -8787,58 +9025,58 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
+        <v>603</v>
+      </c>
+      <c r="D4" t="s">
+        <v>601</v>
+      </c>
+      <c r="E4" t="s">
+        <v>602</v>
+      </c>
+      <c r="F4" t="s">
+        <v>604</v>
+      </c>
+      <c r="G4" t="s">
         <v>606</v>
       </c>
-      <c r="D4" t="s">
-        <v>604</v>
-      </c>
-      <c r="E4" t="s">
-        <v>605</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
+        <v>606</v>
+      </c>
+      <c r="I4" t="s">
         <v>607</v>
       </c>
-      <c r="G4" t="s">
+      <c r="J4" t="s">
+        <v>607</v>
+      </c>
+      <c r="K4" t="s">
         <v>608</v>
       </c>
-      <c r="H4" t="s">
+      <c r="L4" t="s">
         <v>608</v>
       </c>
-      <c r="I4" t="s">
+      <c r="M4" t="s">
         <v>609</v>
       </c>
-      <c r="J4" t="s">
+      <c r="N4" t="s">
         <v>609</v>
       </c>
-      <c r="K4" t="s">
+      <c r="O4" t="s">
         <v>610</v>
       </c>
-      <c r="L4" t="s">
+      <c r="P4" t="s">
         <v>610</v>
       </c>
-      <c r="M4" t="s">
+      <c r="Q4" t="s">
         <v>611</v>
       </c>
-      <c r="N4" t="s">
+      <c r="R4" t="s">
         <v>611</v>
       </c>
-      <c r="O4" t="s">
+      <c r="S4" t="s">
         <v>612</v>
       </c>
-      <c r="P4" t="s">
+      <c r="T4" t="s">
         <v>612</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>613</v>
-      </c>
-      <c r="R4" t="s">
-        <v>613</v>
-      </c>
-      <c r="S4" t="s">
-        <v>614</v>
-      </c>
-      <c r="T4" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="5">
@@ -8846,58 +9084,58 @@
         <v>22</v>
       </c>
       <c r="C5" t="s">
+        <v>603</v>
+      </c>
+      <c r="D5" t="s">
+        <v>601</v>
+      </c>
+      <c r="E5" t="s">
+        <v>602</v>
+      </c>
+      <c r="F5" t="s">
+        <v>614</v>
+      </c>
+      <c r="G5" t="s">
         <v>606</v>
       </c>
-      <c r="D5" t="s">
-        <v>604</v>
-      </c>
-      <c r="E5" t="s">
-        <v>605</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
+        <v>606</v>
+      </c>
+      <c r="I5" t="s">
+        <v>607</v>
+      </c>
+      <c r="J5" t="s">
+        <v>607</v>
+      </c>
+      <c r="K5" t="s">
+        <v>608</v>
+      </c>
+      <c r="L5" t="s">
+        <v>608</v>
+      </c>
+      <c r="M5" t="s">
+        <v>609</v>
+      </c>
+      <c r="N5" t="s">
+        <v>609</v>
+      </c>
+      <c r="O5" t="s">
+        <v>610</v>
+      </c>
+      <c r="P5" t="s">
+        <v>610</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>615</v>
+      </c>
+      <c r="R5" t="s">
+        <v>615</v>
+      </c>
+      <c r="S5" t="s">
         <v>616</v>
       </c>
-      <c r="G5" t="s">
-        <v>608</v>
-      </c>
-      <c r="H5" t="s">
-        <v>608</v>
-      </c>
-      <c r="I5" t="s">
-        <v>609</v>
-      </c>
-      <c r="J5" t="s">
-        <v>609</v>
-      </c>
-      <c r="K5" t="s">
-        <v>610</v>
-      </c>
-      <c r="L5" t="s">
-        <v>610</v>
-      </c>
-      <c r="M5" t="s">
-        <v>611</v>
-      </c>
-      <c r="N5" t="s">
-        <v>611</v>
-      </c>
-      <c r="O5" t="s">
-        <v>612</v>
-      </c>
-      <c r="P5" t="s">
-        <v>612</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>617</v>
-      </c>
-      <c r="R5" t="s">
-        <v>617</v>
-      </c>
-      <c r="S5" t="s">
-        <v>618</v>
-      </c>
       <c r="T5" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="6">
@@ -8910,58 +9148,58 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
+        <v>603</v>
+      </c>
+      <c r="D7" t="s">
+        <v>601</v>
+      </c>
+      <c r="E7" t="s">
+        <v>617</v>
+      </c>
+      <c r="F7" t="s">
+        <v>604</v>
+      </c>
+      <c r="G7" t="s">
         <v>606</v>
       </c>
-      <c r="D7" t="s">
-        <v>604</v>
-      </c>
-      <c r="E7" t="s">
-        <v>619</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
+        <v>606</v>
+      </c>
+      <c r="I7" t="s">
         <v>607</v>
       </c>
-      <c r="G7" t="s">
+      <c r="J7" t="s">
+        <v>607</v>
+      </c>
+      <c r="K7" t="s">
         <v>608</v>
       </c>
-      <c r="H7" t="s">
+      <c r="L7" t="s">
         <v>608</v>
       </c>
-      <c r="I7" t="s">
+      <c r="M7" t="s">
         <v>609</v>
       </c>
-      <c r="J7" t="s">
+      <c r="N7" t="s">
         <v>609</v>
       </c>
-      <c r="K7" t="s">
-        <v>610</v>
-      </c>
-      <c r="L7" t="s">
-        <v>610</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="O7" t="s">
+        <v>618</v>
+      </c>
+      <c r="P7" t="s">
+        <v>618</v>
+      </c>
+      <c r="Q7" t="s">
         <v>611</v>
       </c>
-      <c r="N7" t="s">
+      <c r="R7" t="s">
         <v>611</v>
       </c>
-      <c r="O7" t="s">
-        <v>620</v>
-      </c>
-      <c r="P7" t="s">
-        <v>620</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>613</v>
-      </c>
-      <c r="R7" t="s">
-        <v>613</v>
-      </c>
       <c r="S7" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="T7" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="8">
@@ -8969,58 +9207,58 @@
         <v>22</v>
       </c>
       <c r="C8" t="s">
+        <v>603</v>
+      </c>
+      <c r="D8" t="s">
+        <v>601</v>
+      </c>
+      <c r="E8" t="s">
+        <v>617</v>
+      </c>
+      <c r="F8" t="s">
+        <v>614</v>
+      </c>
+      <c r="G8" t="s">
         <v>606</v>
       </c>
-      <c r="D8" t="s">
-        <v>604</v>
-      </c>
-      <c r="E8" t="s">
-        <v>619</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
+        <v>606</v>
+      </c>
+      <c r="I8" t="s">
+        <v>607</v>
+      </c>
+      <c r="J8" t="s">
+        <v>607</v>
+      </c>
+      <c r="K8" t="s">
+        <v>608</v>
+      </c>
+      <c r="L8" t="s">
+        <v>608</v>
+      </c>
+      <c r="M8" t="s">
+        <v>609</v>
+      </c>
+      <c r="N8" t="s">
+        <v>609</v>
+      </c>
+      <c r="O8" t="s">
+        <v>618</v>
+      </c>
+      <c r="P8" t="s">
+        <v>618</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>615</v>
+      </c>
+      <c r="R8" t="s">
+        <v>615</v>
+      </c>
+      <c r="S8" t="s">
         <v>616</v>
       </c>
-      <c r="G8" t="s">
-        <v>608</v>
-      </c>
-      <c r="H8" t="s">
-        <v>608</v>
-      </c>
-      <c r="I8" t="s">
-        <v>609</v>
-      </c>
-      <c r="J8" t="s">
-        <v>609</v>
-      </c>
-      <c r="K8" t="s">
-        <v>610</v>
-      </c>
-      <c r="L8" t="s">
-        <v>610</v>
-      </c>
-      <c r="M8" t="s">
-        <v>611</v>
-      </c>
-      <c r="N8" t="s">
-        <v>611</v>
-      </c>
-      <c r="O8" t="s">
-        <v>620</v>
-      </c>
-      <c r="P8" t="s">
-        <v>620</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>617</v>
-      </c>
-      <c r="R8" t="s">
-        <v>617</v>
-      </c>
-      <c r="S8" t="s">
-        <v>618</v>
-      </c>
       <c r="T8" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="9">
@@ -9033,58 +9271,58 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
+        <v>603</v>
+      </c>
+      <c r="D10" t="s">
+        <v>601</v>
+      </c>
+      <c r="E10" t="s">
+        <v>619</v>
+      </c>
+      <c r="F10" t="s">
+        <v>604</v>
+      </c>
+      <c r="G10" t="s">
         <v>606</v>
       </c>
-      <c r="D10" t="s">
-        <v>604</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="H10" t="s">
+        <v>606</v>
+      </c>
+      <c r="I10" t="s">
+        <v>607</v>
+      </c>
+      <c r="J10" t="s">
+        <v>607</v>
+      </c>
+      <c r="K10" t="s">
+        <v>608</v>
+      </c>
+      <c r="L10" t="s">
+        <v>608</v>
+      </c>
+      <c r="M10" t="s">
+        <v>609</v>
+      </c>
+      <c r="N10" t="s">
+        <v>609</v>
+      </c>
+      <c r="O10" t="s">
+        <v>620</v>
+      </c>
+      <c r="P10" t="s">
+        <v>620</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>611</v>
+      </c>
+      <c r="R10" t="s">
+        <v>611</v>
+      </c>
+      <c r="S10" t="s">
         <v>621</v>
       </c>
-      <c r="F10" t="s">
-        <v>607</v>
-      </c>
-      <c r="G10" t="s">
-        <v>608</v>
-      </c>
-      <c r="H10" t="s">
-        <v>608</v>
-      </c>
-      <c r="I10" t="s">
-        <v>609</v>
-      </c>
-      <c r="J10" t="s">
-        <v>609</v>
-      </c>
-      <c r="K10" t="s">
-        <v>610</v>
-      </c>
-      <c r="L10" t="s">
-        <v>610</v>
-      </c>
-      <c r="M10" t="s">
-        <v>611</v>
-      </c>
-      <c r="N10" t="s">
-        <v>611</v>
-      </c>
-      <c r="O10" t="s">
-        <v>622</v>
-      </c>
-      <c r="P10" t="s">
-        <v>622</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>613</v>
-      </c>
-      <c r="R10" t="s">
-        <v>613</v>
-      </c>
-      <c r="S10" t="s">
-        <v>623</v>
-      </c>
       <c r="T10" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="11">
@@ -9092,58 +9330,58 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
+        <v>603</v>
+      </c>
+      <c r="D11" t="s">
+        <v>601</v>
+      </c>
+      <c r="E11" t="s">
+        <v>619</v>
+      </c>
+      <c r="F11" t="s">
+        <v>614</v>
+      </c>
+      <c r="G11" t="s">
         <v>606</v>
       </c>
-      <c r="D11" t="s">
-        <v>604</v>
-      </c>
-      <c r="E11" t="s">
-        <v>621</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
+        <v>606</v>
+      </c>
+      <c r="I11" t="s">
+        <v>607</v>
+      </c>
+      <c r="J11" t="s">
+        <v>607</v>
+      </c>
+      <c r="K11" t="s">
+        <v>608</v>
+      </c>
+      <c r="L11" t="s">
+        <v>608</v>
+      </c>
+      <c r="M11" t="s">
+        <v>609</v>
+      </c>
+      <c r="N11" t="s">
+        <v>609</v>
+      </c>
+      <c r="O11" t="s">
+        <v>620</v>
+      </c>
+      <c r="P11" t="s">
+        <v>620</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>615</v>
+      </c>
+      <c r="R11" t="s">
+        <v>615</v>
+      </c>
+      <c r="S11" t="s">
         <v>616</v>
       </c>
-      <c r="G11" t="s">
-        <v>608</v>
-      </c>
-      <c r="H11" t="s">
-        <v>608</v>
-      </c>
-      <c r="I11" t="s">
-        <v>609</v>
-      </c>
-      <c r="J11" t="s">
-        <v>609</v>
-      </c>
-      <c r="K11" t="s">
-        <v>610</v>
-      </c>
-      <c r="L11" t="s">
-        <v>610</v>
-      </c>
-      <c r="M11" t="s">
-        <v>611</v>
-      </c>
-      <c r="N11" t="s">
-        <v>611</v>
-      </c>
-      <c r="O11" t="s">
-        <v>622</v>
-      </c>
-      <c r="P11" t="s">
-        <v>622</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>617</v>
-      </c>
-      <c r="R11" t="s">
-        <v>617</v>
-      </c>
-      <c r="S11" t="s">
-        <v>618</v>
-      </c>
       <c r="T11" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="12">
@@ -9156,58 +9394,58 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
+        <v>603</v>
+      </c>
+      <c r="D13" t="s">
+        <v>601</v>
+      </c>
+      <c r="E13" t="s">
+        <v>622</v>
+      </c>
+      <c r="F13" t="s">
+        <v>604</v>
+      </c>
+      <c r="G13" t="s">
         <v>606</v>
       </c>
-      <c r="D13" t="s">
-        <v>604</v>
-      </c>
-      <c r="E13" t="s">
-        <v>624</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="H13" t="s">
+        <v>606</v>
+      </c>
+      <c r="I13" t="s">
         <v>607</v>
       </c>
-      <c r="G13" t="s">
+      <c r="J13" t="s">
+        <v>607</v>
+      </c>
+      <c r="K13" t="s">
         <v>608</v>
       </c>
-      <c r="H13" t="s">
+      <c r="L13" t="s">
         <v>608</v>
       </c>
-      <c r="I13" t="s">
+      <c r="M13" t="s">
         <v>609</v>
       </c>
-      <c r="J13" t="s">
+      <c r="N13" t="s">
         <v>609</v>
       </c>
-      <c r="K13" t="s">
-        <v>610</v>
-      </c>
-      <c r="L13" t="s">
-        <v>610</v>
-      </c>
-      <c r="M13" t="s">
+      <c r="O13" t="s">
+        <v>623</v>
+      </c>
+      <c r="P13" t="s">
+        <v>623</v>
+      </c>
+      <c r="Q13" t="s">
         <v>611</v>
       </c>
-      <c r="N13" t="s">
+      <c r="R13" t="s">
         <v>611</v>
       </c>
-      <c r="O13" t="s">
-        <v>625</v>
-      </c>
-      <c r="P13" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>613</v>
-      </c>
-      <c r="R13" t="s">
-        <v>613</v>
-      </c>
       <c r="S13" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="T13" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="14">
@@ -9215,58 +9453,58 @@
         <v>22</v>
       </c>
       <c r="C14" t="s">
+        <v>603</v>
+      </c>
+      <c r="D14" t="s">
+        <v>601</v>
+      </c>
+      <c r="E14" t="s">
+        <v>622</v>
+      </c>
+      <c r="F14" t="s">
+        <v>614</v>
+      </c>
+      <c r="G14" t="s">
         <v>606</v>
       </c>
-      <c r="D14" t="s">
-        <v>604</v>
-      </c>
-      <c r="E14" t="s">
-        <v>624</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="H14" t="s">
+        <v>606</v>
+      </c>
+      <c r="I14" t="s">
+        <v>607</v>
+      </c>
+      <c r="J14" t="s">
+        <v>607</v>
+      </c>
+      <c r="K14" t="s">
+        <v>608</v>
+      </c>
+      <c r="L14" t="s">
+        <v>608</v>
+      </c>
+      <c r="M14" t="s">
+        <v>609</v>
+      </c>
+      <c r="N14" t="s">
+        <v>609</v>
+      </c>
+      <c r="O14" t="s">
+        <v>623</v>
+      </c>
+      <c r="P14" t="s">
+        <v>623</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>615</v>
+      </c>
+      <c r="R14" t="s">
+        <v>615</v>
+      </c>
+      <c r="S14" t="s">
         <v>616</v>
       </c>
-      <c r="G14" t="s">
-        <v>608</v>
-      </c>
-      <c r="H14" t="s">
-        <v>608</v>
-      </c>
-      <c r="I14" t="s">
-        <v>609</v>
-      </c>
-      <c r="J14" t="s">
-        <v>609</v>
-      </c>
-      <c r="K14" t="s">
-        <v>610</v>
-      </c>
-      <c r="L14" t="s">
-        <v>610</v>
-      </c>
-      <c r="M14" t="s">
-        <v>611</v>
-      </c>
-      <c r="N14" t="s">
-        <v>611</v>
-      </c>
-      <c r="O14" t="s">
-        <v>625</v>
-      </c>
-      <c r="P14" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>617</v>
-      </c>
-      <c r="R14" t="s">
-        <v>617</v>
-      </c>
-      <c r="S14" t="s">
-        <v>618</v>
-      </c>
       <c r="T14" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="15">
@@ -9279,58 +9517,58 @@
         <v>22</v>
       </c>
       <c r="C16" t="s">
+        <v>603</v>
+      </c>
+      <c r="D16" t="s">
+        <v>624</v>
+      </c>
+      <c r="E16" t="s">
+        <v>602</v>
+      </c>
+      <c r="F16" t="s">
+        <v>604</v>
+      </c>
+      <c r="G16" t="s">
         <v>606</v>
       </c>
-      <c r="D16" t="s">
-        <v>626</v>
-      </c>
-      <c r="E16" t="s">
-        <v>605</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="H16" t="s">
+        <v>606</v>
+      </c>
+      <c r="I16" t="s">
         <v>607</v>
       </c>
-      <c r="G16" t="s">
-        <v>608</v>
-      </c>
-      <c r="H16" t="s">
-        <v>608</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
+        <v>607</v>
+      </c>
+      <c r="K16" t="s">
+        <v>625</v>
+      </c>
+      <c r="L16" t="s">
+        <v>625</v>
+      </c>
+      <c r="M16" t="s">
         <v>609</v>
       </c>
-      <c r="J16" t="s">
+      <c r="N16" t="s">
         <v>609</v>
       </c>
-      <c r="K16" t="s">
-        <v>627</v>
-      </c>
-      <c r="L16" t="s">
-        <v>627</v>
-      </c>
-      <c r="M16" t="s">
+      <c r="O16" t="s">
+        <v>610</v>
+      </c>
+      <c r="P16" t="s">
+        <v>610</v>
+      </c>
+      <c r="Q16" t="s">
         <v>611</v>
       </c>
-      <c r="N16" t="s">
+      <c r="R16" t="s">
         <v>611</v>
       </c>
-      <c r="O16" t="s">
+      <c r="S16" t="s">
         <v>612</v>
       </c>
-      <c r="P16" t="s">
+      <c r="T16" t="s">
         <v>612</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>613</v>
-      </c>
-      <c r="R16" t="s">
-        <v>613</v>
-      </c>
-      <c r="S16" t="s">
-        <v>614</v>
-      </c>
-      <c r="T16" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="17">
@@ -9338,58 +9576,58 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
+        <v>603</v>
+      </c>
+      <c r="D17" t="s">
+        <v>624</v>
+      </c>
+      <c r="E17" t="s">
+        <v>602</v>
+      </c>
+      <c r="F17" t="s">
+        <v>614</v>
+      </c>
+      <c r="G17" t="s">
         <v>606</v>
       </c>
-      <c r="D17" t="s">
-        <v>626</v>
-      </c>
-      <c r="E17" t="s">
-        <v>605</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="H17" t="s">
+        <v>606</v>
+      </c>
+      <c r="I17" t="s">
+        <v>607</v>
+      </c>
+      <c r="J17" t="s">
+        <v>607</v>
+      </c>
+      <c r="K17" t="s">
+        <v>625</v>
+      </c>
+      <c r="L17" t="s">
+        <v>625</v>
+      </c>
+      <c r="M17" t="s">
+        <v>609</v>
+      </c>
+      <c r="N17" t="s">
+        <v>609</v>
+      </c>
+      <c r="O17" t="s">
+        <v>610</v>
+      </c>
+      <c r="P17" t="s">
+        <v>610</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>615</v>
+      </c>
+      <c r="R17" t="s">
+        <v>615</v>
+      </c>
+      <c r="S17" t="s">
         <v>616</v>
       </c>
-      <c r="G17" t="s">
-        <v>608</v>
-      </c>
-      <c r="H17" t="s">
-        <v>608</v>
-      </c>
-      <c r="I17" t="s">
-        <v>609</v>
-      </c>
-      <c r="J17" t="s">
-        <v>609</v>
-      </c>
-      <c r="K17" t="s">
-        <v>627</v>
-      </c>
-      <c r="L17" t="s">
-        <v>627</v>
-      </c>
-      <c r="M17" t="s">
-        <v>611</v>
-      </c>
-      <c r="N17" t="s">
-        <v>611</v>
-      </c>
-      <c r="O17" t="s">
-        <v>612</v>
-      </c>
-      <c r="P17" t="s">
-        <v>612</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>617</v>
-      </c>
-      <c r="R17" t="s">
-        <v>617</v>
-      </c>
-      <c r="S17" t="s">
-        <v>618</v>
-      </c>
       <c r="T17" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="18">
@@ -9402,58 +9640,58 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
+        <v>603</v>
+      </c>
+      <c r="D19" t="s">
+        <v>624</v>
+      </c>
+      <c r="E19" t="s">
+        <v>617</v>
+      </c>
+      <c r="F19" t="s">
+        <v>604</v>
+      </c>
+      <c r="G19" t="s">
         <v>606</v>
       </c>
-      <c r="D19" t="s">
-        <v>626</v>
-      </c>
-      <c r="E19" t="s">
-        <v>619</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="H19" t="s">
+        <v>606</v>
+      </c>
+      <c r="I19" t="s">
         <v>607</v>
       </c>
-      <c r="G19" t="s">
-        <v>608</v>
-      </c>
-      <c r="H19" t="s">
-        <v>608</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
+        <v>607</v>
+      </c>
+      <c r="K19" t="s">
+        <v>625</v>
+      </c>
+      <c r="L19" t="s">
+        <v>625</v>
+      </c>
+      <c r="M19" t="s">
         <v>609</v>
       </c>
-      <c r="J19" t="s">
+      <c r="N19" t="s">
         <v>609</v>
       </c>
-      <c r="K19" t="s">
-        <v>627</v>
-      </c>
-      <c r="L19" t="s">
-        <v>627</v>
-      </c>
-      <c r="M19" t="s">
+      <c r="O19" t="s">
+        <v>618</v>
+      </c>
+      <c r="P19" t="s">
+        <v>618</v>
+      </c>
+      <c r="Q19" t="s">
         <v>611</v>
       </c>
-      <c r="N19" t="s">
+      <c r="R19" t="s">
         <v>611</v>
       </c>
-      <c r="O19" t="s">
-        <v>620</v>
-      </c>
-      <c r="P19" t="s">
-        <v>620</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>613</v>
-      </c>
-      <c r="R19" t="s">
-        <v>613</v>
-      </c>
       <c r="S19" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="T19" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="20">
@@ -9461,58 +9699,58 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
+        <v>603</v>
+      </c>
+      <c r="D20" t="s">
+        <v>624</v>
+      </c>
+      <c r="E20" t="s">
+        <v>617</v>
+      </c>
+      <c r="F20" t="s">
+        <v>614</v>
+      </c>
+      <c r="G20" t="s">
         <v>606</v>
       </c>
-      <c r="D20" t="s">
-        <v>626</v>
-      </c>
-      <c r="E20" t="s">
-        <v>619</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="H20" t="s">
+        <v>606</v>
+      </c>
+      <c r="I20" t="s">
+        <v>607</v>
+      </c>
+      <c r="J20" t="s">
+        <v>607</v>
+      </c>
+      <c r="K20" t="s">
+        <v>625</v>
+      </c>
+      <c r="L20" t="s">
+        <v>625</v>
+      </c>
+      <c r="M20" t="s">
+        <v>609</v>
+      </c>
+      <c r="N20" t="s">
+        <v>609</v>
+      </c>
+      <c r="O20" t="s">
+        <v>618</v>
+      </c>
+      <c r="P20" t="s">
+        <v>618</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>615</v>
+      </c>
+      <c r="R20" t="s">
+        <v>615</v>
+      </c>
+      <c r="S20" t="s">
         <v>616</v>
       </c>
-      <c r="G20" t="s">
-        <v>608</v>
-      </c>
-      <c r="H20" t="s">
-        <v>608</v>
-      </c>
-      <c r="I20" t="s">
-        <v>609</v>
-      </c>
-      <c r="J20" t="s">
-        <v>609</v>
-      </c>
-      <c r="K20" t="s">
-        <v>627</v>
-      </c>
-      <c r="L20" t="s">
-        <v>627</v>
-      </c>
-      <c r="M20" t="s">
-        <v>611</v>
-      </c>
-      <c r="N20" t="s">
-        <v>611</v>
-      </c>
-      <c r="O20" t="s">
-        <v>620</v>
-      </c>
-      <c r="P20" t="s">
-        <v>620</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>617</v>
-      </c>
-      <c r="R20" t="s">
-        <v>617</v>
-      </c>
-      <c r="S20" t="s">
-        <v>618</v>
-      </c>
       <c r="T20" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="21">
@@ -9525,58 +9763,58 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
+        <v>603</v>
+      </c>
+      <c r="D22" t="s">
+        <v>624</v>
+      </c>
+      <c r="E22" t="s">
+        <v>619</v>
+      </c>
+      <c r="F22" t="s">
+        <v>604</v>
+      </c>
+      <c r="G22" t="s">
         <v>606</v>
       </c>
-      <c r="D22" t="s">
-        <v>626</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="H22" t="s">
+        <v>606</v>
+      </c>
+      <c r="I22" t="s">
+        <v>607</v>
+      </c>
+      <c r="J22" t="s">
+        <v>607</v>
+      </c>
+      <c r="K22" t="s">
+        <v>625</v>
+      </c>
+      <c r="L22" t="s">
+        <v>625</v>
+      </c>
+      <c r="M22" t="s">
+        <v>609</v>
+      </c>
+      <c r="N22" t="s">
+        <v>609</v>
+      </c>
+      <c r="O22" t="s">
+        <v>620</v>
+      </c>
+      <c r="P22" t="s">
+        <v>620</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>611</v>
+      </c>
+      <c r="R22" t="s">
+        <v>611</v>
+      </c>
+      <c r="S22" t="s">
         <v>621</v>
       </c>
-      <c r="F22" t="s">
-        <v>607</v>
-      </c>
-      <c r="G22" t="s">
-        <v>608</v>
-      </c>
-      <c r="H22" t="s">
-        <v>608</v>
-      </c>
-      <c r="I22" t="s">
-        <v>609</v>
-      </c>
-      <c r="J22" t="s">
-        <v>609</v>
-      </c>
-      <c r="K22" t="s">
-        <v>627</v>
-      </c>
-      <c r="L22" t="s">
-        <v>627</v>
-      </c>
-      <c r="M22" t="s">
-        <v>611</v>
-      </c>
-      <c r="N22" t="s">
-        <v>611</v>
-      </c>
-      <c r="O22" t="s">
-        <v>622</v>
-      </c>
-      <c r="P22" t="s">
-        <v>622</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>613</v>
-      </c>
-      <c r="R22" t="s">
-        <v>613</v>
-      </c>
-      <c r="S22" t="s">
-        <v>623</v>
-      </c>
       <c r="T22" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="23">
@@ -9584,58 +9822,58 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
+        <v>603</v>
+      </c>
+      <c r="D23" t="s">
+        <v>624</v>
+      </c>
+      <c r="E23" t="s">
+        <v>619</v>
+      </c>
+      <c r="F23" t="s">
+        <v>614</v>
+      </c>
+      <c r="G23" t="s">
         <v>606</v>
       </c>
-      <c r="D23" t="s">
-        <v>626</v>
-      </c>
-      <c r="E23" t="s">
-        <v>621</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="H23" t="s">
+        <v>606</v>
+      </c>
+      <c r="I23" t="s">
+        <v>607</v>
+      </c>
+      <c r="J23" t="s">
+        <v>607</v>
+      </c>
+      <c r="K23" t="s">
+        <v>625</v>
+      </c>
+      <c r="L23" t="s">
+        <v>625</v>
+      </c>
+      <c r="M23" t="s">
+        <v>609</v>
+      </c>
+      <c r="N23" t="s">
+        <v>609</v>
+      </c>
+      <c r="O23" t="s">
+        <v>620</v>
+      </c>
+      <c r="P23" t="s">
+        <v>620</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>615</v>
+      </c>
+      <c r="R23" t="s">
+        <v>615</v>
+      </c>
+      <c r="S23" t="s">
         <v>616</v>
       </c>
-      <c r="G23" t="s">
-        <v>608</v>
-      </c>
-      <c r="H23" t="s">
-        <v>608</v>
-      </c>
-      <c r="I23" t="s">
-        <v>609</v>
-      </c>
-      <c r="J23" t="s">
-        <v>609</v>
-      </c>
-      <c r="K23" t="s">
-        <v>627</v>
-      </c>
-      <c r="L23" t="s">
-        <v>627</v>
-      </c>
-      <c r="M23" t="s">
-        <v>611</v>
-      </c>
-      <c r="N23" t="s">
-        <v>611</v>
-      </c>
-      <c r="O23" t="s">
-        <v>622</v>
-      </c>
-      <c r="P23" t="s">
-        <v>622</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>617</v>
-      </c>
-      <c r="R23" t="s">
-        <v>617</v>
-      </c>
-      <c r="S23" t="s">
-        <v>618</v>
-      </c>
       <c r="T23" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="24">
@@ -9648,58 +9886,58 @@
         <v>22</v>
       </c>
       <c r="C25" t="s">
+        <v>603</v>
+      </c>
+      <c r="D25" t="s">
+        <v>624</v>
+      </c>
+      <c r="E25" t="s">
+        <v>622</v>
+      </c>
+      <c r="F25" t="s">
+        <v>604</v>
+      </c>
+      <c r="G25" t="s">
         <v>606</v>
       </c>
-      <c r="D25" t="s">
-        <v>626</v>
-      </c>
-      <c r="E25" t="s">
-        <v>624</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="H25" t="s">
+        <v>606</v>
+      </c>
+      <c r="I25" t="s">
         <v>607</v>
       </c>
-      <c r="G25" t="s">
-        <v>608</v>
-      </c>
-      <c r="H25" t="s">
-        <v>608</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
+        <v>607</v>
+      </c>
+      <c r="K25" t="s">
+        <v>625</v>
+      </c>
+      <c r="L25" t="s">
+        <v>625</v>
+      </c>
+      <c r="M25" t="s">
         <v>609</v>
       </c>
-      <c r="J25" t="s">
+      <c r="N25" t="s">
         <v>609</v>
       </c>
-      <c r="K25" t="s">
-        <v>627</v>
-      </c>
-      <c r="L25" t="s">
-        <v>627</v>
-      </c>
-      <c r="M25" t="s">
+      <c r="O25" t="s">
+        <v>623</v>
+      </c>
+      <c r="P25" t="s">
+        <v>623</v>
+      </c>
+      <c r="Q25" t="s">
         <v>611</v>
       </c>
-      <c r="N25" t="s">
+      <c r="R25" t="s">
         <v>611</v>
       </c>
-      <c r="O25" t="s">
-        <v>625</v>
-      </c>
-      <c r="P25" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>613</v>
-      </c>
-      <c r="R25" t="s">
-        <v>613</v>
-      </c>
       <c r="S25" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="T25" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="26">
@@ -9707,58 +9945,58 @@
         <v>22</v>
       </c>
       <c r="C26" t="s">
+        <v>603</v>
+      </c>
+      <c r="D26" t="s">
+        <v>624</v>
+      </c>
+      <c r="E26" t="s">
+        <v>622</v>
+      </c>
+      <c r="F26" t="s">
+        <v>614</v>
+      </c>
+      <c r="G26" t="s">
         <v>606</v>
       </c>
-      <c r="D26" t="s">
-        <v>626</v>
-      </c>
-      <c r="E26" t="s">
-        <v>624</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="H26" t="s">
+        <v>606</v>
+      </c>
+      <c r="I26" t="s">
+        <v>607</v>
+      </c>
+      <c r="J26" t="s">
+        <v>607</v>
+      </c>
+      <c r="K26" t="s">
+        <v>625</v>
+      </c>
+      <c r="L26" t="s">
+        <v>625</v>
+      </c>
+      <c r="M26" t="s">
+        <v>609</v>
+      </c>
+      <c r="N26" t="s">
+        <v>609</v>
+      </c>
+      <c r="O26" t="s">
+        <v>623</v>
+      </c>
+      <c r="P26" t="s">
+        <v>623</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>615</v>
+      </c>
+      <c r="R26" t="s">
+        <v>615</v>
+      </c>
+      <c r="S26" t="s">
         <v>616</v>
       </c>
-      <c r="G26" t="s">
-        <v>608</v>
-      </c>
-      <c r="H26" t="s">
-        <v>608</v>
-      </c>
-      <c r="I26" t="s">
-        <v>609</v>
-      </c>
-      <c r="J26" t="s">
-        <v>609</v>
-      </c>
-      <c r="K26" t="s">
-        <v>627</v>
-      </c>
-      <c r="L26" t="s">
-        <v>627</v>
-      </c>
-      <c r="M26" t="s">
-        <v>611</v>
-      </c>
-      <c r="N26" t="s">
-        <v>611</v>
-      </c>
-      <c r="O26" t="s">
-        <v>625</v>
-      </c>
-      <c r="P26" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>617</v>
-      </c>
-      <c r="R26" t="s">
-        <v>617</v>
-      </c>
-      <c r="S26" t="s">
-        <v>618</v>
-      </c>
       <c r="T26" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="27">
@@ -9771,58 +10009,58 @@
         <v>22</v>
       </c>
       <c r="C28" t="s">
+        <v>603</v>
+      </c>
+      <c r="D28" t="s">
+        <v>626</v>
+      </c>
+      <c r="E28" t="s">
+        <v>602</v>
+      </c>
+      <c r="F28" t="s">
+        <v>604</v>
+      </c>
+      <c r="G28" t="s">
         <v>606</v>
       </c>
-      <c r="D28" t="s">
-        <v>628</v>
-      </c>
-      <c r="E28" t="s">
-        <v>605</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="H28" t="s">
+        <v>606</v>
+      </c>
+      <c r="I28" t="s">
         <v>607</v>
       </c>
-      <c r="G28" t="s">
-        <v>608</v>
-      </c>
-      <c r="H28" t="s">
-        <v>608</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
+        <v>607</v>
+      </c>
+      <c r="K28" t="s">
+        <v>627</v>
+      </c>
+      <c r="L28" t="s">
+        <v>627</v>
+      </c>
+      <c r="M28" t="s">
         <v>609</v>
       </c>
-      <c r="J28" t="s">
+      <c r="N28" t="s">
         <v>609</v>
       </c>
-      <c r="K28" t="s">
-        <v>629</v>
-      </c>
-      <c r="L28" t="s">
-        <v>629</v>
-      </c>
-      <c r="M28" t="s">
+      <c r="O28" t="s">
+        <v>610</v>
+      </c>
+      <c r="P28" t="s">
+        <v>610</v>
+      </c>
+      <c r="Q28" t="s">
         <v>611</v>
       </c>
-      <c r="N28" t="s">
+      <c r="R28" t="s">
         <v>611</v>
       </c>
-      <c r="O28" t="s">
+      <c r="S28" t="s">
         <v>612</v>
       </c>
-      <c r="P28" t="s">
+      <c r="T28" t="s">
         <v>612</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>613</v>
-      </c>
-      <c r="R28" t="s">
-        <v>613</v>
-      </c>
-      <c r="S28" t="s">
-        <v>614</v>
-      </c>
-      <c r="T28" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="29">
@@ -9830,58 +10068,58 @@
         <v>22</v>
       </c>
       <c r="C29" t="s">
+        <v>603</v>
+      </c>
+      <c r="D29" t="s">
+        <v>626</v>
+      </c>
+      <c r="E29" t="s">
+        <v>602</v>
+      </c>
+      <c r="F29" t="s">
+        <v>614</v>
+      </c>
+      <c r="G29" t="s">
         <v>606</v>
       </c>
-      <c r="D29" t="s">
-        <v>628</v>
-      </c>
-      <c r="E29" t="s">
-        <v>605</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="H29" t="s">
+        <v>606</v>
+      </c>
+      <c r="I29" t="s">
+        <v>607</v>
+      </c>
+      <c r="J29" t="s">
+        <v>607</v>
+      </c>
+      <c r="K29" t="s">
+        <v>627</v>
+      </c>
+      <c r="L29" t="s">
+        <v>627</v>
+      </c>
+      <c r="M29" t="s">
+        <v>609</v>
+      </c>
+      <c r="N29" t="s">
+        <v>609</v>
+      </c>
+      <c r="O29" t="s">
+        <v>610</v>
+      </c>
+      <c r="P29" t="s">
+        <v>610</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>615</v>
+      </c>
+      <c r="R29" t="s">
+        <v>615</v>
+      </c>
+      <c r="S29" t="s">
         <v>616</v>
       </c>
-      <c r="G29" t="s">
-        <v>608</v>
-      </c>
-      <c r="H29" t="s">
-        <v>608</v>
-      </c>
-      <c r="I29" t="s">
-        <v>609</v>
-      </c>
-      <c r="J29" t="s">
-        <v>609</v>
-      </c>
-      <c r="K29" t="s">
-        <v>629</v>
-      </c>
-      <c r="L29" t="s">
-        <v>629</v>
-      </c>
-      <c r="M29" t="s">
-        <v>611</v>
-      </c>
-      <c r="N29" t="s">
-        <v>611</v>
-      </c>
-      <c r="O29" t="s">
-        <v>612</v>
-      </c>
-      <c r="P29" t="s">
-        <v>612</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>617</v>
-      </c>
-      <c r="R29" t="s">
-        <v>617</v>
-      </c>
-      <c r="S29" t="s">
-        <v>618</v>
-      </c>
       <c r="T29" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="30">
@@ -9894,58 +10132,58 @@
         <v>22</v>
       </c>
       <c r="C31" t="s">
+        <v>603</v>
+      </c>
+      <c r="D31" t="s">
+        <v>626</v>
+      </c>
+      <c r="E31" t="s">
+        <v>617</v>
+      </c>
+      <c r="F31" t="s">
+        <v>604</v>
+      </c>
+      <c r="G31" t="s">
         <v>606</v>
       </c>
-      <c r="D31" t="s">
-        <v>628</v>
-      </c>
-      <c r="E31" t="s">
-        <v>619</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="H31" t="s">
+        <v>606</v>
+      </c>
+      <c r="I31" t="s">
         <v>607</v>
       </c>
-      <c r="G31" t="s">
-        <v>608</v>
-      </c>
-      <c r="H31" t="s">
-        <v>608</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
+        <v>607</v>
+      </c>
+      <c r="K31" t="s">
+        <v>627</v>
+      </c>
+      <c r="L31" t="s">
+        <v>627</v>
+      </c>
+      <c r="M31" t="s">
         <v>609</v>
       </c>
-      <c r="J31" t="s">
+      <c r="N31" t="s">
         <v>609</v>
       </c>
-      <c r="K31" t="s">
-        <v>629</v>
-      </c>
-      <c r="L31" t="s">
-        <v>629</v>
-      </c>
-      <c r="M31" t="s">
+      <c r="O31" t="s">
+        <v>618</v>
+      </c>
+      <c r="P31" t="s">
+        <v>618</v>
+      </c>
+      <c r="Q31" t="s">
         <v>611</v>
       </c>
-      <c r="N31" t="s">
+      <c r="R31" t="s">
         <v>611</v>
       </c>
-      <c r="O31" t="s">
-        <v>620</v>
-      </c>
-      <c r="P31" t="s">
-        <v>620</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>613</v>
-      </c>
-      <c r="R31" t="s">
-        <v>613</v>
-      </c>
       <c r="S31" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="T31" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="32">
@@ -9953,58 +10191,58 @@
         <v>22</v>
       </c>
       <c r="C32" t="s">
+        <v>603</v>
+      </c>
+      <c r="D32" t="s">
+        <v>626</v>
+      </c>
+      <c r="E32" t="s">
+        <v>617</v>
+      </c>
+      <c r="F32" t="s">
+        <v>614</v>
+      </c>
+      <c r="G32" t="s">
         <v>606</v>
       </c>
-      <c r="D32" t="s">
-        <v>628</v>
-      </c>
-      <c r="E32" t="s">
-        <v>619</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="H32" t="s">
+        <v>606</v>
+      </c>
+      <c r="I32" t="s">
+        <v>607</v>
+      </c>
+      <c r="J32" t="s">
+        <v>607</v>
+      </c>
+      <c r="K32" t="s">
+        <v>627</v>
+      </c>
+      <c r="L32" t="s">
+        <v>627</v>
+      </c>
+      <c r="M32" t="s">
+        <v>609</v>
+      </c>
+      <c r="N32" t="s">
+        <v>609</v>
+      </c>
+      <c r="O32" t="s">
+        <v>618</v>
+      </c>
+      <c r="P32" t="s">
+        <v>618</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>615</v>
+      </c>
+      <c r="R32" t="s">
+        <v>615</v>
+      </c>
+      <c r="S32" t="s">
         <v>616</v>
       </c>
-      <c r="G32" t="s">
-        <v>608</v>
-      </c>
-      <c r="H32" t="s">
-        <v>608</v>
-      </c>
-      <c r="I32" t="s">
-        <v>609</v>
-      </c>
-      <c r="J32" t="s">
-        <v>609</v>
-      </c>
-      <c r="K32" t="s">
-        <v>629</v>
-      </c>
-      <c r="L32" t="s">
-        <v>629</v>
-      </c>
-      <c r="M32" t="s">
-        <v>611</v>
-      </c>
-      <c r="N32" t="s">
-        <v>611</v>
-      </c>
-      <c r="O32" t="s">
-        <v>620</v>
-      </c>
-      <c r="P32" t="s">
-        <v>620</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>617</v>
-      </c>
-      <c r="R32" t="s">
-        <v>617</v>
-      </c>
-      <c r="S32" t="s">
-        <v>618</v>
-      </c>
       <c r="T32" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
   </sheetData>
@@ -10055,11 +10293,11 @@
       <c r="B4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="213" t="s">
+      <c r="C4" s="215" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="213"/>
-      <c r="E4" s="213"/>
+      <c r="D4" s="215"/>
+      <c r="E4" s="215"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
@@ -10076,7 +10314,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="209" t="s">
+      <c r="B7" s="211" t="s">
         <v>481</v>
       </c>
       <c r="C7" s="118" t="s">
@@ -10090,7 +10328,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="210"/>
+      <c r="B8" s="212"/>
       <c r="C8" s="118" t="s">
         <v>160</v>
       </c>
@@ -10102,7 +10340,7 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="210"/>
+      <c r="B9" s="212"/>
       <c r="C9" s="118" t="s">
         <v>284</v>
       </c>
@@ -10114,7 +10352,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="210"/>
+      <c r="B10" s="212"/>
       <c r="C10" s="118" t="s">
         <v>29</v>
       </c>
@@ -10126,7 +10364,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="211"/>
+      <c r="B11" s="213"/>
       <c r="C11" s="118" t="s">
         <v>30</v>
       </c>
@@ -10138,7 +10376,7 @@
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="209" t="s">
+      <c r="B12" s="211" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="118" t="s">
@@ -10152,7 +10390,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="211"/>
+      <c r="B13" s="213"/>
       <c r="C13" s="118" t="s">
         <v>96</v>
       </c>
@@ -10164,7 +10402,7 @@
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="214" t="s">
+      <c r="B14" s="216" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="118" t="s">
@@ -10178,7 +10416,7 @@
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="215"/>
+      <c r="B15" s="217"/>
       <c r="C15" s="118" t="s">
         <v>27</v>
       </c>
@@ -10190,7 +10428,7 @@
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="212" t="s">
+      <c r="B16" s="214" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="118" t="s">
@@ -10204,7 +10442,7 @@
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="212"/>
+      <c r="B17" s="214"/>
       <c r="C17" s="118" t="s">
         <v>359</v>
       </c>
@@ -10216,7 +10454,7 @@
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="212"/>
+      <c r="B18" s="214"/>
       <c r="C18" s="118" t="s">
         <v>31</v>
       </c>
@@ -10228,7 +10466,7 @@
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="212" t="s">
+      <c r="B19" s="214" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="119" t="s">
@@ -10242,7 +10480,7 @@
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="212"/>
+      <c r="B20" s="214"/>
       <c r="C20" s="119" t="s">
         <v>359</v>
       </c>
@@ -10254,7 +10492,7 @@
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B21" s="212"/>
+      <c r="B21" s="214"/>
       <c r="C21" s="119" t="s">
         <v>360</v>
       </c>
@@ -10266,7 +10504,7 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="209" t="s">
+      <c r="B22" s="211" t="s">
         <v>474</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -10280,7 +10518,7 @@
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B23" s="210"/>
+      <c r="B23" s="212"/>
       <c r="C23" s="3" t="s">
         <v>476</v>
       </c>
@@ -10292,7 +10530,7 @@
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B24" s="210"/>
+      <c r="B24" s="212"/>
       <c r="C24" s="3" t="s">
         <v>477</v>
       </c>
@@ -10304,7 +10542,7 @@
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B25" s="211"/>
+      <c r="B25" s="213"/>
       <c r="C25" s="3" t="s">
         <v>478</v>
       </c>
@@ -10316,7 +10554,7 @@
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B26" s="209" t="s">
+      <c r="B26" s="211" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -10330,7 +10568,7 @@
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B27" s="210"/>
+      <c r="B27" s="212"/>
       <c r="C27" s="3" t="s">
         <v>325</v>
       </c>
@@ -10342,7 +10580,7 @@
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B28" s="210"/>
+      <c r="B28" s="212"/>
       <c r="C28" s="3" t="s">
         <v>362</v>
       </c>
@@ -10354,7 +10592,7 @@
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B29" s="210"/>
+      <c r="B29" s="212"/>
       <c r="C29" s="3" t="s">
         <v>326</v>
       </c>
@@ -10366,7 +10604,7 @@
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B30" s="211"/>
+      <c r="B30" s="213"/>
       <c r="C30" s="3" t="s">
         <v>363</v>
       </c>
@@ -12884,73 +13122,73 @@
   </cols>
   <sheetData>
     <row customFormat="1" ht="26.25" r="1" s="29" spans="1:10" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="222" t="s">
+      <c r="A1" s="224" t="s">
         <v>235</v>
       </c>
-      <c r="B1" s="223"/>
-      <c r="C1" s="223"/>
-      <c r="D1" s="223"/>
-      <c r="E1" s="223"/>
-      <c r="F1" s="223"/>
-      <c r="G1" s="223"/>
-      <c r="H1" s="223"/>
-      <c r="I1" s="224"/>
+      <c r="B1" s="225"/>
+      <c r="C1" s="225"/>
+      <c r="D1" s="225"/>
+      <c r="E1" s="225"/>
+      <c r="F1" s="225"/>
+      <c r="G1" s="225"/>
+      <c r="H1" s="225"/>
+      <c r="I1" s="226"/>
     </row>
     <row ht="13.5" r="2" spans="1:10" thickBot="1" x14ac:dyDescent="0.25"/>
     <row ht="13.5" r="3" spans="1:10" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="225" t="s">
+      <c r="A3" s="227" t="s">
         <v>201</v>
       </c>
-      <c r="B3" s="226"/>
-      <c r="C3" s="226"/>
-      <c r="D3" s="226"/>
-      <c r="E3" s="226"/>
-      <c r="F3" s="226"/>
-      <c r="G3" s="226"/>
-      <c r="H3" s="226"/>
-      <c r="I3" s="227"/>
+      <c r="B3" s="228"/>
+      <c r="C3" s="228"/>
+      <c r="D3" s="228"/>
+      <c r="E3" s="228"/>
+      <c r="F3" s="228"/>
+      <c r="G3" s="228"/>
+      <c r="H3" s="228"/>
+      <c r="I3" s="229"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="50" t="s">
         <v>202</v>
       </c>
-      <c r="B4" s="228"/>
-      <c r="C4" s="228"/>
-      <c r="D4" s="228"/>
-      <c r="E4" s="228"/>
-      <c r="F4" s="228"/>
-      <c r="G4" s="228"/>
-      <c r="H4" s="228"/>
-      <c r="I4" s="229"/>
+      <c r="B4" s="230"/>
+      <c r="C4" s="230"/>
+      <c r="D4" s="230"/>
+      <c r="E4" s="230"/>
+      <c r="F4" s="230"/>
+      <c r="G4" s="230"/>
+      <c r="H4" s="230"/>
+      <c r="I4" s="231"/>
     </row>
     <row ht="13.5" r="5" spans="1:10" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="51" t="s">
         <v>203</v>
       </c>
-      <c r="B5" s="230"/>
-      <c r="C5" s="231"/>
-      <c r="D5" s="231"/>
-      <c r="E5" s="231"/>
-      <c r="F5" s="231"/>
-      <c r="G5" s="231"/>
-      <c r="H5" s="231"/>
-      <c r="I5" s="232"/>
+      <c r="B5" s="232"/>
+      <c r="C5" s="233"/>
+      <c r="D5" s="233"/>
+      <c r="E5" s="233"/>
+      <c r="F5" s="233"/>
+      <c r="G5" s="233"/>
+      <c r="H5" s="233"/>
+      <c r="I5" s="234"/>
     </row>
     <row ht="13.5" r="6" spans="1:10" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J6" s="68"/>
     </row>
     <row ht="13.5" r="7" spans="1:10" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="233" t="s">
+      <c r="A7" s="235" t="s">
         <v>236</v>
       </c>
-      <c r="B7" s="234"/>
-      <c r="C7" s="234"/>
-      <c r="D7" s="234"/>
-      <c r="E7" s="234"/>
-      <c r="F7" s="234"/>
-      <c r="G7" s="234"/>
-      <c r="H7" s="234"/>
-      <c r="I7" s="235"/>
+      <c r="B7" s="236"/>
+      <c r="C7" s="236"/>
+      <c r="D7" s="236"/>
+      <c r="E7" s="236"/>
+      <c r="F7" s="236"/>
+      <c r="G7" s="236"/>
+      <c r="H7" s="236"/>
+      <c r="I7" s="237"/>
     </row>
     <row ht="13.5" r="8" spans="1:10" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="48" t="s">
@@ -13093,32 +13331,32 @@
     </row>
     <row ht="13.5" r="19" spans="1:9" thickBot="1" x14ac:dyDescent="0.25"/>
     <row ht="13.5" r="20" spans="1:9" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="233" t="s">
+      <c r="A20" s="235" t="s">
         <v>182</v>
       </c>
-      <c r="B20" s="234"/>
-      <c r="C20" s="234"/>
-      <c r="D20" s="234"/>
-      <c r="E20" s="234"/>
-      <c r="F20" s="234"/>
-      <c r="G20" s="234"/>
-      <c r="H20" s="234"/>
-      <c r="I20" s="235"/>
+      <c r="B20" s="236"/>
+      <c r="C20" s="236"/>
+      <c r="D20" s="236"/>
+      <c r="E20" s="236"/>
+      <c r="F20" s="236"/>
+      <c r="G20" s="236"/>
+      <c r="H20" s="236"/>
+      <c r="I20" s="237"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="216" t="s">
+      <c r="A21" s="218" t="s">
         <v>216</v>
       </c>
-      <c r="B21" s="217"/>
-      <c r="C21" s="217"/>
-      <c r="D21" s="217"/>
-      <c r="E21" s="218"/>
-      <c r="F21" s="219" t="s">
+      <c r="B21" s="219"/>
+      <c r="C21" s="219"/>
+      <c r="D21" s="219"/>
+      <c r="E21" s="220"/>
+      <c r="F21" s="221" t="s">
         <v>218</v>
       </c>
-      <c r="G21" s="220"/>
-      <c r="H21" s="220"/>
-      <c r="I21" s="221"/>
+      <c r="G21" s="222"/>
+      <c r="H21" s="222"/>
+      <c r="I21" s="223"/>
     </row>
     <row ht="13.5" r="22" spans="1:9" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="47" t="s">
@@ -13315,71 +13553,71 @@
   </cols>
   <sheetData>
     <row ht="26.25" r="1" spans="1:11" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="222" t="s">
+      <c r="A1" s="224" t="s">
         <v>213</v>
       </c>
-      <c r="B1" s="223"/>
-      <c r="C1" s="223"/>
-      <c r="D1" s="223"/>
-      <c r="E1" s="223"/>
-      <c r="F1" s="223"/>
-      <c r="G1" s="223"/>
-      <c r="H1" s="223"/>
-      <c r="I1" s="224"/>
+      <c r="B1" s="225"/>
+      <c r="C1" s="225"/>
+      <c r="D1" s="225"/>
+      <c r="E1" s="225"/>
+      <c r="F1" s="225"/>
+      <c r="G1" s="225"/>
+      <c r="H1" s="225"/>
+      <c r="I1" s="226"/>
     </row>
     <row ht="13.5" r="2" spans="1:11" thickBot="1" x14ac:dyDescent="0.25"/>
     <row ht="13.5" r="3" spans="1:11" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="225" t="s">
+      <c r="A3" s="227" t="s">
         <v>201</v>
       </c>
-      <c r="B3" s="226"/>
-      <c r="C3" s="226"/>
-      <c r="D3" s="226"/>
-      <c r="E3" s="226"/>
-      <c r="F3" s="226"/>
-      <c r="G3" s="226"/>
-      <c r="H3" s="226"/>
-      <c r="I3" s="227"/>
+      <c r="B3" s="228"/>
+      <c r="C3" s="228"/>
+      <c r="D3" s="228"/>
+      <c r="E3" s="228"/>
+      <c r="F3" s="228"/>
+      <c r="G3" s="228"/>
+      <c r="H3" s="228"/>
+      <c r="I3" s="229"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="50" t="s">
         <v>202</v>
       </c>
-      <c r="B4" s="228"/>
-      <c r="C4" s="228"/>
-      <c r="D4" s="228"/>
-      <c r="E4" s="228"/>
-      <c r="F4" s="228"/>
-      <c r="G4" s="228"/>
-      <c r="H4" s="228"/>
-      <c r="I4" s="229"/>
+      <c r="B4" s="230"/>
+      <c r="C4" s="230"/>
+      <c r="D4" s="230"/>
+      <c r="E4" s="230"/>
+      <c r="F4" s="230"/>
+      <c r="G4" s="230"/>
+      <c r="H4" s="230"/>
+      <c r="I4" s="231"/>
     </row>
     <row ht="13.5" r="5" spans="1:11" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="51" t="s">
         <v>203</v>
       </c>
-      <c r="B5" s="236"/>
-      <c r="C5" s="237"/>
-      <c r="D5" s="237"/>
-      <c r="E5" s="237"/>
-      <c r="F5" s="237"/>
-      <c r="G5" s="237"/>
-      <c r="H5" s="237"/>
-      <c r="I5" s="238"/>
+      <c r="B5" s="243"/>
+      <c r="C5" s="244"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="245"/>
     </row>
     <row ht="13.5" r="6" spans="1:11" thickBot="1" x14ac:dyDescent="0.25"/>
     <row ht="13.5" r="7" spans="1:11" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="233" t="s">
+      <c r="A7" s="235" t="s">
         <v>195</v>
       </c>
-      <c r="B7" s="234"/>
-      <c r="C7" s="234"/>
-      <c r="D7" s="234"/>
-      <c r="E7" s="234"/>
-      <c r="F7" s="234"/>
-      <c r="G7" s="234"/>
-      <c r="H7" s="234"/>
-      <c r="I7" s="235"/>
+      <c r="B7" s="236"/>
+      <c r="C7" s="236"/>
+      <c r="D7" s="236"/>
+      <c r="E7" s="236"/>
+      <c r="F7" s="236"/>
+      <c r="G7" s="236"/>
+      <c r="H7" s="236"/>
+      <c r="I7" s="237"/>
     </row>
     <row ht="13.5" r="8" spans="1:11" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="48" t="s">
@@ -13559,32 +13797,32 @@
     </row>
     <row ht="13.5" r="19" spans="1:22" thickBot="1" x14ac:dyDescent="0.25"/>
     <row ht="13.5" r="20" spans="1:22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="233" t="s">
+      <c r="A20" s="235" t="s">
         <v>182</v>
       </c>
-      <c r="B20" s="234"/>
-      <c r="C20" s="234"/>
-      <c r="D20" s="234"/>
-      <c r="E20" s="234"/>
-      <c r="F20" s="234"/>
-      <c r="G20" s="234"/>
-      <c r="H20" s="234"/>
-      <c r="I20" s="235"/>
+      <c r="B20" s="236"/>
+      <c r="C20" s="236"/>
+      <c r="D20" s="236"/>
+      <c r="E20" s="236"/>
+      <c r="F20" s="236"/>
+      <c r="G20" s="236"/>
+      <c r="H20" s="236"/>
+      <c r="I20" s="237"/>
     </row>
     <row customHeight="1" ht="31.5" r="21" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A21" s="243" t="s">
+      <c r="A21" s="242" t="s">
         <v>278</v>
       </c>
-      <c r="B21" s="217"/>
-      <c r="C21" s="217"/>
-      <c r="D21" s="217"/>
-      <c r="E21" s="218"/>
-      <c r="F21" s="219" t="s">
+      <c r="B21" s="219"/>
+      <c r="C21" s="219"/>
+      <c r="D21" s="219"/>
+      <c r="E21" s="220"/>
+      <c r="F21" s="221" t="s">
         <v>218</v>
       </c>
-      <c r="G21" s="220"/>
-      <c r="H21" s="220"/>
-      <c r="I21" s="221"/>
+      <c r="G21" s="222"/>
+      <c r="H21" s="222"/>
+      <c r="I21" s="223"/>
       <c r="V21" s="56"/>
     </row>
     <row customFormat="1" ht="13.5" r="22" s="37" spans="1:22" thickBot="1" x14ac:dyDescent="0.25">
@@ -13973,32 +14211,32 @@
     </row>
     <row ht="13.5" r="35" spans="1:22" thickBot="1" x14ac:dyDescent="0.25"/>
     <row ht="13.5" r="36" spans="1:22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="233" t="s">
+      <c r="A36" s="235" t="s">
         <v>181</v>
       </c>
-      <c r="B36" s="234"/>
-      <c r="C36" s="234"/>
-      <c r="D36" s="234"/>
-      <c r="E36" s="234"/>
-      <c r="F36" s="234"/>
-      <c r="G36" s="234"/>
-      <c r="H36" s="234"/>
-      <c r="I36" s="235"/>
+      <c r="B36" s="236"/>
+      <c r="C36" s="236"/>
+      <c r="D36" s="236"/>
+      <c r="E36" s="236"/>
+      <c r="F36" s="236"/>
+      <c r="G36" s="236"/>
+      <c r="H36" s="236"/>
+      <c r="I36" s="237"/>
     </row>
     <row customHeight="1" ht="26.25" r="37" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A37" s="239" t="s">
+      <c r="A37" s="238" t="s">
         <v>189</v>
       </c>
-      <c r="B37" s="240"/>
-      <c r="C37" s="240"/>
-      <c r="D37" s="240"/>
-      <c r="E37" s="241"/>
-      <c r="F37" s="242" t="s">
+      <c r="B37" s="239"/>
+      <c r="C37" s="239"/>
+      <c r="D37" s="239"/>
+      <c r="E37" s="240"/>
+      <c r="F37" s="241" t="s">
         <v>218</v>
       </c>
-      <c r="G37" s="220"/>
-      <c r="H37" s="220"/>
-      <c r="I37" s="221"/>
+      <c r="G37" s="222"/>
+      <c r="H37" s="222"/>
+      <c r="I37" s="223"/>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="105" t="s">
@@ -14353,17 +14591,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A36:I36"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="A21:E21"/>
     <mergeCell ref="A20:I20"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="B5:I5"/>
     <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A36:I36"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="A21:E21"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B9:B18" type="list">
@@ -14438,44 +14676,44 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="30" r="1" spans="1:34" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="222" t="s">
+      <c r="A1" s="224" t="s">
         <v>286</v>
       </c>
-      <c r="B1" s="223"/>
-      <c r="C1" s="223"/>
-      <c r="D1" s="223"/>
-      <c r="E1" s="223"/>
-      <c r="F1" s="223"/>
-      <c r="G1" s="223"/>
-      <c r="H1" s="223"/>
-      <c r="I1" s="224"/>
+      <c r="B1" s="225"/>
+      <c r="C1" s="225"/>
+      <c r="D1" s="225"/>
+      <c r="E1" s="225"/>
+      <c r="F1" s="225"/>
+      <c r="G1" s="225"/>
+      <c r="H1" s="225"/>
+      <c r="I1" s="226"/>
     </row>
     <row ht="13.5" r="2" spans="1:34" thickBot="1" x14ac:dyDescent="0.25"/>
     <row ht="13.5" r="3" spans="1:34" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="225" t="s">
+      <c r="A3" s="227" t="s">
         <v>201</v>
       </c>
-      <c r="B3" s="226"/>
-      <c r="C3" s="226"/>
-      <c r="D3" s="226"/>
-      <c r="E3" s="226"/>
-      <c r="F3" s="226"/>
-      <c r="G3" s="226"/>
-      <c r="H3" s="226"/>
-      <c r="I3" s="227"/>
+      <c r="B3" s="228"/>
+      <c r="C3" s="228"/>
+      <c r="D3" s="228"/>
+      <c r="E3" s="228"/>
+      <c r="F3" s="228"/>
+      <c r="G3" s="228"/>
+      <c r="H3" s="228"/>
+      <c r="I3" s="229"/>
     </row>
     <row ht="13.5" r="4" spans="1:34" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="86" t="s">
         <v>202</v>
       </c>
-      <c r="B4" s="246"/>
-      <c r="C4" s="246"/>
-      <c r="D4" s="246"/>
-      <c r="E4" s="246"/>
-      <c r="F4" s="246"/>
-      <c r="G4" s="246"/>
-      <c r="H4" s="246"/>
-      <c r="I4" s="247"/>
+      <c r="B4" s="251"/>
+      <c r="C4" s="251"/>
+      <c r="D4" s="251"/>
+      <c r="E4" s="251"/>
+      <c r="F4" s="251"/>
+      <c r="G4" s="251"/>
+      <c r="H4" s="251"/>
+      <c r="I4" s="252"/>
     </row>
     <row ht="13.5" r="5" spans="1:34" thickBot="1" x14ac:dyDescent="0.25"/>
     <row ht="13.5" r="6" spans="1:34" thickBot="1" x14ac:dyDescent="0.25">
@@ -14501,10 +14739,10 @@
       <c r="R6" s="187"/>
       <c r="S6" s="187"/>
       <c r="T6" s="188"/>
-      <c r="U6" s="248" t="s">
+      <c r="U6" s="246" t="s">
         <v>288</v>
       </c>
-      <c r="V6" s="249"/>
+      <c r="V6" s="247"/>
       <c r="W6" s="81"/>
       <c r="X6" s="81"/>
       <c r="Y6" s="81"/>
@@ -16373,32 +16611,32 @@
       <c r="X57" s="81"/>
     </row>
     <row ht="13.5" r="58" spans="1:34" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="233" t="s">
+      <c r="A58" s="235" t="s">
         <v>182</v>
       </c>
-      <c r="B58" s="234"/>
-      <c r="C58" s="234"/>
-      <c r="D58" s="234"/>
-      <c r="E58" s="234"/>
-      <c r="F58" s="234"/>
-      <c r="G58" s="234"/>
-      <c r="H58" s="234"/>
-      <c r="I58" s="235"/>
+      <c r="B58" s="236"/>
+      <c r="C58" s="236"/>
+      <c r="D58" s="236"/>
+      <c r="E58" s="236"/>
+      <c r="F58" s="236"/>
+      <c r="G58" s="236"/>
+      <c r="H58" s="236"/>
+      <c r="I58" s="237"/>
     </row>
     <row customHeight="1" ht="12.75" outlineLevel="1" r="59" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A59" s="216" t="s">
+      <c r="A59" s="218" t="s">
         <v>189</v>
       </c>
-      <c r="B59" s="217"/>
-      <c r="C59" s="217"/>
-      <c r="D59" s="217"/>
-      <c r="E59" s="245"/>
-      <c r="F59" s="244" t="s">
+      <c r="B59" s="219"/>
+      <c r="C59" s="219"/>
+      <c r="D59" s="219"/>
+      <c r="E59" s="249"/>
+      <c r="F59" s="250" t="s">
         <v>187</v>
       </c>
-      <c r="G59" s="220"/>
-      <c r="H59" s="220"/>
-      <c r="I59" s="221"/>
+      <c r="G59" s="222"/>
+      <c r="H59" s="222"/>
+      <c r="I59" s="223"/>
     </row>
     <row customFormat="1" ht="26.25" outlineLevel="1" r="60" s="37" spans="1:34" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="47" t="s">
@@ -16692,32 +16930,32 @@
     </row>
     <row ht="13.5" r="72" spans="1:9" thickBot="1" x14ac:dyDescent="0.25"/>
     <row ht="13.5" r="73" spans="1:9" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="233" t="s">
+      <c r="A73" s="235" t="s">
         <v>181</v>
       </c>
-      <c r="B73" s="234"/>
-      <c r="C73" s="234"/>
-      <c r="D73" s="234"/>
-      <c r="E73" s="234"/>
-      <c r="F73" s="234"/>
-      <c r="G73" s="234"/>
-      <c r="H73" s="234"/>
-      <c r="I73" s="235"/>
+      <c r="B73" s="236"/>
+      <c r="C73" s="236"/>
+      <c r="D73" s="236"/>
+      <c r="E73" s="236"/>
+      <c r="F73" s="236"/>
+      <c r="G73" s="236"/>
+      <c r="H73" s="236"/>
+      <c r="I73" s="237"/>
     </row>
     <row outlineLevel="1" r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="250" t="s">
+      <c r="A74" s="248" t="s">
         <v>189</v>
       </c>
-      <c r="B74" s="217"/>
-      <c r="C74" s="217"/>
-      <c r="D74" s="217"/>
-      <c r="E74" s="245"/>
-      <c r="F74" s="244" t="s">
+      <c r="B74" s="219"/>
+      <c r="C74" s="219"/>
+      <c r="D74" s="219"/>
+      <c r="E74" s="249"/>
+      <c r="F74" s="250" t="s">
         <v>187</v>
       </c>
-      <c r="G74" s="220"/>
-      <c r="H74" s="220"/>
-      <c r="I74" s="221"/>
+      <c r="G74" s="222"/>
+      <c r="H74" s="222"/>
+      <c r="I74" s="223"/>
     </row>
     <row ht="26.25" outlineLevel="1" r="75" spans="1:9" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="40" t="s">
@@ -16805,16 +17043,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="B4:I4"/>
     <mergeCell ref="U6:V6"/>
     <mergeCell ref="A74:E74"/>
     <mergeCell ref="F74:I74"/>
     <mergeCell ref="A58:I58"/>
     <mergeCell ref="A73:I73"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="F59:I59"/>
-    <mergeCell ref="A59:E59"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="B4:I4"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B61:B71 B76:B80" type="list">
